--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRV\Desktop\Post-U\Scripts\Covid-19-GT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3C9BB6-FF10-4285-B033-DDBC4DA499D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F86BE7-ADB7-446C-A3E5-7EC1DFF2E6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8964" xr2:uid="{AA73A8E6-3049-124E-B539-6781E68448FF}"/>
+    <workbookView xWindow="1884" yWindow="2256" windowWidth="17280" windowHeight="8964" xr2:uid="{AA73A8E6-3049-124E-B539-6781E68448FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos por región" sheetId="5" r:id="rId1"/>
@@ -104,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -118,6 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB674D3-9E41-D649-93CD-CA4AF39B5E4C}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -487,7 +488,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G44" si="0">SUM(B2,C2,D2,E2,F2)</f>
+        <f t="shared" ref="G2:G45" si="0">SUM(B2,C2,D2,E2,F2)</f>
         <v>167</v>
       </c>
     </row>
@@ -1497,6 +1498,30 @@
       <c r="G44" s="1">
         <f t="shared" si="0"/>
         <v>3760</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>43977</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2969</v>
+      </c>
+      <c r="C45" s="1">
+        <v>337</v>
+      </c>
+      <c r="D45" s="1">
+        <v>209</v>
+      </c>
+      <c r="E45" s="1">
+        <v>229</v>
+      </c>
+      <c r="F45" s="1">
+        <v>210</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="0"/>
+        <v>3954</v>
       </c>
     </row>
   </sheetData>

--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRV\Desktop\Post-U\Scripts\Covid-19-GT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F86BE7-ADB7-446C-A3E5-7EC1DFF2E6C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4702024F-D039-4635-82FC-C93E0BA5761A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="2256" windowWidth="17280" windowHeight="8964" xr2:uid="{AA73A8E6-3049-124E-B539-6781E68448FF}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{AA73A8E6-3049-124E-B539-6781E68448FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos por región" sheetId="5" r:id="rId1"/>
@@ -104,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -118,7 +118,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB674D3-9E41-D649-93CD-CA4AF39B5E4C}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -488,7 +487,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:G45" si="0">SUM(B2,C2,D2,E2,F2)</f>
+        <f t="shared" ref="G2:G48" si="0">SUM(B2,C2,D2,E2,F2)</f>
         <v>167</v>
       </c>
     </row>
@@ -1501,7 +1500,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
+      <c r="A45" s="2">
         <v>43977</v>
       </c>
       <c r="B45" s="1">
@@ -1522,6 +1521,78 @@
       <c r="G45" s="1">
         <f t="shared" si="0"/>
         <v>3954</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43978</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3114</v>
+      </c>
+      <c r="C46" s="1">
+        <v>348</v>
+      </c>
+      <c r="D46" s="1">
+        <v>211</v>
+      </c>
+      <c r="E46" s="1">
+        <v>257</v>
+      </c>
+      <c r="F46" s="1">
+        <v>215</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="0"/>
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43979</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3281</v>
+      </c>
+      <c r="C47" s="1">
+        <v>354</v>
+      </c>
+      <c r="D47" s="1">
+        <v>212</v>
+      </c>
+      <c r="E47" s="1">
+        <v>275</v>
+      </c>
+      <c r="F47" s="1">
+        <v>226</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="0"/>
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43980</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3436</v>
+      </c>
+      <c r="C48" s="1">
+        <v>406</v>
+      </c>
+      <c r="D48" s="1">
+        <v>220</v>
+      </c>
+      <c r="E48" s="1">
+        <v>302</v>
+      </c>
+      <c r="F48" s="1">
+        <v>243</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="0"/>
+        <v>4607</v>
       </c>
     </row>
   </sheetData>

--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -17,8 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -61,7 +62,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -76,6 +77,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,10 +387,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -1633,6 +1635,52 @@
         <v>5336</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="5" t="n">
+        <v>43984</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4146</v>
+      </c>
+      <c r="C52" t="n">
+        <v>488</v>
+      </c>
+      <c r="D52" t="n">
+        <v>258</v>
+      </c>
+      <c r="E52" t="n">
+        <v>401</v>
+      </c>
+      <c r="F52" t="n">
+        <v>293</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5586</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>43985</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4277</v>
+      </c>
+      <c r="C53" t="n">
+        <v>499</v>
+      </c>
+      <c r="D53" t="n">
+        <v>267</v>
+      </c>
+      <c r="E53" t="n">
+        <v>422</v>
+      </c>
+      <c r="F53" t="n">
+        <v>295</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5760</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G16">
     <sortState ref="A2:G41">

--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -1,38 +1,147 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRV\Desktop\Post-U\Scripts\Covid-19-GT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4BE927-D3EA-4615-BF55-D74981AB6B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Casos por región" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Casos por región" sheetId="1" r:id="rId1"/>
+    <sheet name="Casos por Departamento" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Casos por región'!$A$1:$G$16</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Region 1</t>
+  </si>
+  <si>
+    <t>Region 2</t>
+  </si>
+  <si>
+    <t>Region 3</t>
+  </si>
+  <si>
+    <t>Region 4</t>
+  </si>
+  <si>
+    <t>Region 5</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Alta Verapaz</t>
+  </si>
+  <si>
+    <t>Baja Verapaz</t>
+  </si>
+  <si>
+    <t>Chimaltenango</t>
+  </si>
+  <si>
+    <t>Chiquimula</t>
+  </si>
+  <si>
+    <t>El Progreso</t>
+  </si>
+  <si>
+    <t>Escuintla</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Huehuetenango</t>
+  </si>
+  <si>
+    <t>Izabal</t>
+  </si>
+  <si>
+    <t>Jalapa</t>
+  </si>
+  <si>
+    <t>Jutiapa</t>
+  </si>
+  <si>
+    <t>Petén</t>
+  </si>
+  <si>
+    <t>Quezaltenango</t>
+  </si>
+  <si>
+    <t>Quiché</t>
+  </si>
+  <si>
+    <t>Retalhuleu</t>
+  </si>
+  <si>
+    <t>Sacatepéquez</t>
+  </si>
+  <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Sololá</t>
+  </si>
+  <si>
+    <t>Suchitepéquez</t>
+  </si>
+  <si>
+    <t>Totonicapán</t>
+  </si>
+  <si>
+    <t>Zacapa</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -62,27 +171,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -382,1311 +499,2311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="13.5" customWidth="1" min="2" max="2"/>
-    <col width="11.3984375" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="17" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Region 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Region 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Region 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Region 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Region 5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>43934</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3">
         <v>134</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>9</v>
       </c>
       <c r="G2" s="1">
-        <f>SUM(B2,C2,D2,E2,F2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+        <f t="shared" ref="G2:G33" si="0">SUM(B2,C2,D2,E2,F2)</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>43935</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3">
         <v>141</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3">
         <v>9</v>
       </c>
-      <c r="G3" s="1">
-        <f>SUM(B3,C3,D3,E3,F3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>43936</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4">
         <v>148</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
-        <f>SUM(B4,C4,D4,E4,F4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>43937</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5">
         <v>152</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5">
         <v>13</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="G5" s="1">
-        <f>SUM(B5,C5,D5,E5,F5)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>43938</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6">
         <v>156</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6">
         <v>13</v>
       </c>
-      <c r="G6" s="1">
-        <f>SUM(B6,C6,D6,E6,F6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>43939</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7">
         <v>164</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7">
         <v>43</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7">
         <v>17</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7">
         <v>19</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7">
         <v>14</v>
       </c>
-      <c r="G7" s="1">
-        <f>SUM(B7,C7,D7,E7,F7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>43940</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8">
         <v>174</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8">
         <v>52</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8">
         <v>22</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8">
         <v>17</v>
       </c>
-      <c r="G8" s="1">
-        <f>SUM(B8,C8,D8,E8,F8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>43941</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9">
         <v>178</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9">
         <v>53</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9">
         <v>24</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9">
         <v>22</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9">
         <v>17</v>
       </c>
-      <c r="G9" s="1">
-        <f>SUM(B9,C9,D9,E9,F9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>43942</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10">
         <v>193</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10">
         <v>53</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10">
         <v>29</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10">
         <v>23</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10">
         <v>18</v>
       </c>
-      <c r="G10" s="1">
-        <f>SUM(B10,C10,D10,E10,F10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>43943</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11">
         <v>200</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11">
         <v>62</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11">
         <v>25</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F11">
         <v>20</v>
       </c>
-      <c r="G11" s="1">
-        <f>SUM(B11,C11,D11,E11,F11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>43944</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12">
         <v>214</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12">
         <v>76</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12">
         <v>42</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12">
         <v>27</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F12">
         <v>25</v>
       </c>
-      <c r="G12" s="1">
-        <f>SUM(B12,C12,D12,E12,F12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>43945</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13">
         <v>252</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13">
         <v>77</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13">
         <v>48</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13">
         <v>28</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F13">
         <v>25</v>
       </c>
-      <c r="G13" s="1">
-        <f>SUM(B13,C13,D13,E13,F13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>43946</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14">
         <v>284</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14">
         <v>79</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14">
         <v>52</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14">
         <v>32</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F14">
         <v>26</v>
       </c>
-      <c r="G14" s="1">
-        <f>SUM(B14,C14,D14,E14,F14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>43947</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15">
         <v>295</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15">
         <v>84</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15">
         <v>57</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15">
         <v>34</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15">
         <v>30</v>
       </c>
-      <c r="G15" s="1">
-        <f>SUM(B15,C15,D15,E15,F15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>43948</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16">
         <v>302</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16">
         <v>89</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16">
         <v>73</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E16">
         <v>34</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F16">
         <v>32</v>
       </c>
-      <c r="G16" s="1">
-        <f>SUM(B16,C16,D16,E16,F16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>43949</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17">
         <v>320</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17">
         <v>89</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17">
         <v>79</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17">
         <v>37</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F17">
         <v>32</v>
       </c>
-      <c r="G17" s="1">
-        <f>SUM(B17,C17,D17,E17,F17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>43950</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18">
         <v>339</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18">
         <v>89</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18">
         <v>81</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E18">
         <v>38</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F18">
         <v>38</v>
       </c>
-      <c r="G18" s="1">
-        <f>SUM(B18,C18,D18,E18,F18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>43951</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19">
         <v>347</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19">
         <v>89</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19">
         <v>84</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19">
         <v>41</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F19">
         <v>38</v>
       </c>
-      <c r="G19" s="1">
-        <f>SUM(B19,C19,D19,E19,F19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>43952</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20">
         <v>373</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C20">
         <v>91</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20">
         <v>99</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20">
         <v>41</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F20">
         <v>40</v>
       </c>
-      <c r="G20" s="1">
-        <f>SUM(B20,C20,D20,E20,F20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>644</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>43953</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21">
         <v>403</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21">
         <v>93</v>
       </c>
-      <c r="D21" s="4" t="n">
+      <c r="D21">
         <v>103</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E21">
         <v>44</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F21">
         <v>45</v>
       </c>
-      <c r="G21" s="1">
-        <f>SUM(B21,C21,D21,E21,F21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>43954</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22">
         <v>413</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C22">
         <v>97</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22">
         <v>104</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E22">
         <v>44</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F22">
         <v>45</v>
       </c>
-      <c r="G22" s="1">
-        <f>SUM(B22,C22,D22,E22,F22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>43955</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23">
         <v>434</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23">
         <v>97</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23">
         <v>106</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23">
         <v>47</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F23">
         <v>46</v>
       </c>
-      <c r="G23" s="1">
-        <f>SUM(B23,C23,D23,E23,F23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>43956</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24">
         <v>444</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24">
         <v>107</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24">
         <v>115</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24">
         <v>50</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F24">
         <v>47</v>
       </c>
-      <c r="G24" s="1">
-        <f>SUM(B24,C24,D24,E24,F24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>43957</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25">
         <v>467</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C25">
         <v>112</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25">
         <v>117</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25">
         <v>54</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F25">
         <v>48</v>
       </c>
-      <c r="G25" s="1">
-        <f>SUM(B25,C25,D25,E25,F25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
         <v>43958</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26">
         <v>490</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C26">
         <v>112</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26">
         <v>123</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26">
         <v>56</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F26">
         <v>51</v>
       </c>
-      <c r="G26" s="1">
-        <f>SUM(B26,C26,D26,E26,F26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>43959</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27">
         <v>532</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C27">
         <v>114</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27">
         <v>128</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E27">
         <v>68</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F27">
         <v>58</v>
       </c>
-      <c r="G27" s="1">
-        <f>SUM(B27,C27,D27,E27,F27)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
         <v>43960</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28">
         <v>580</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C28">
         <v>115</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28">
         <v>134</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E28">
         <v>71</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F28">
         <v>67</v>
       </c>
-      <c r="G28" s="1">
-        <f>SUM(B28,C28,D28,E28,F28)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>967</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
         <v>43961</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29">
         <v>638</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C29">
         <v>126</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29">
         <v>137</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29">
         <v>75</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F29">
         <v>76</v>
       </c>
-      <c r="G29" s="1">
-        <f>SUM(B29,C29,D29,E29,F29)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
         <v>43962</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30">
         <v>679</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C30">
         <v>128</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30">
         <v>142</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E30">
         <v>78</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F30">
         <v>87</v>
       </c>
-      <c r="G30" s="1">
-        <f>SUM(B30,C30,D30,E30,F30)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
         <v>43963</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31">
         <v>735</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C31">
         <v>138</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31">
         <v>143</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E31">
         <v>81</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31">
         <v>102</v>
       </c>
-      <c r="G31" s="1">
-        <f>SUM(B31,C31,D31,E31,F31)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
         <v>43964</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32">
         <v>833</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C32">
         <v>155</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32">
         <v>143</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E32">
         <v>87</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F32">
         <v>124</v>
       </c>
-      <c r="G32" s="1">
-        <f>SUM(B32,C32,D32,E32,F32)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <v>43965</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33">
         <v>982</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C33">
         <v>167</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33">
         <v>150</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E33">
         <v>90</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F33">
         <v>129</v>
       </c>
-      <c r="G33" s="1">
-        <f>SUM(B33,C33,D33,E33,F33)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>43966</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34">
         <v>1066</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C34">
         <v>184</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34">
         <v>166</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E34">
         <v>91</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F34">
         <v>136</v>
       </c>
-      <c r="G34" s="1">
-        <f>SUM(B34,C34,D34,E34,F34)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="G34">
+        <f t="shared" ref="G34:G58" si="1">SUM(B34,C34,D34,E34,F34)</f>
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
         <v>43967</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B35">
         <v>1152</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C35">
         <v>196</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35">
         <v>173</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E35">
         <v>94</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F35">
         <v>148</v>
       </c>
-      <c r="G35" s="1">
-        <f>SUM(B35,C35,D35,E35,F35)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
         <v>43968</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36">
         <v>1271</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C36">
         <v>211</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36">
         <v>176</v>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36">
         <v>101</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F36">
         <v>153</v>
       </c>
-      <c r="G36" s="1">
-        <f>SUM(B36,C36,D36,E36,F36)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
         <v>43969</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37">
         <v>1343</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C37">
         <v>214</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37">
         <v>177</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E37">
         <v>105</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F37">
         <v>162</v>
       </c>
-      <c r="G37" s="1">
-        <f>SUM(B37,C37,D37,E37,F37)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
         <v>43970</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38">
         <v>1457</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C38">
         <v>220</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38">
         <v>177</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E38">
         <v>110</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F38">
         <v>169</v>
       </c>
-      <c r="G38" s="1">
-        <f>SUM(B38,C38,D38,E38,F38)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
         <v>43971</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39">
         <v>1572</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C39">
         <v>227</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D39">
         <v>177</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E39">
         <v>119</v>
       </c>
-      <c r="F39" s="1" t="n">
+      <c r="F39">
         <v>170</v>
       </c>
-      <c r="G39" s="1">
-        <f>SUM(B39,C39,D39,E39,F39)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
         <v>43972</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40">
         <v>1769</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C40">
         <v>245</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40">
         <v>180</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E40">
         <v>135</v>
       </c>
-      <c r="F40" s="1" t="n">
+      <c r="F40">
         <v>183</v>
       </c>
-      <c r="G40" s="1">
-        <f>SUM(B40,C40,D40,E40,F40)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
         <v>43973</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41">
         <v>1942</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C41">
         <v>274</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41">
         <v>185</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E41">
         <v>151</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F41">
         <v>191</v>
       </c>
-      <c r="G41" s="1">
-        <f>SUM(B41,C41,D41,E41,F41)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
         <v>43974</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42">
         <v>2211</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C42">
         <v>292</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D42">
         <v>185</v>
       </c>
-      <c r="E42" s="1" t="n">
+      <c r="E42">
         <v>166</v>
       </c>
-      <c r="F42" s="1" t="n">
+      <c r="F42">
         <v>200</v>
       </c>
-      <c r="G42" s="1">
-        <f>SUM(B42,C42,D42,E42,F42)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
         <v>43975</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43">
         <v>2547</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C43">
         <v>305</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D43">
         <v>189</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E43">
         <v>179</v>
       </c>
-      <c r="F43" s="1" t="n">
+      <c r="F43">
         <v>204</v>
       </c>
-      <c r="G43" s="1">
-        <f>SUM(B43,C43,D43,E43,F43)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
         <v>43976</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44">
         <v>2814</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C44">
         <v>322</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D44">
         <v>205</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E44">
         <v>212</v>
       </c>
-      <c r="F44" s="1" t="n">
+      <c r="F44">
         <v>207</v>
       </c>
-      <c r="G44" s="1">
-        <f>SUM(B44,C44,D44,E44,F44)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
         <v>43977</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45">
         <v>2969</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C45">
         <v>337</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45">
         <v>209</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E45">
         <v>229</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F45">
         <v>210</v>
       </c>
-      <c r="G45" s="1">
-        <f>SUM(B45,C45,D45,E45,F45)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
         <v>43978</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46">
         <v>3114</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C46">
         <v>348</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D46">
         <v>211</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E46">
         <v>257</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="F46">
         <v>215</v>
       </c>
-      <c r="G46" s="1">
-        <f>SUM(B46,C46,D46,E46,F46)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
         <v>43979</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47">
         <v>3281</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C47">
         <v>354</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D47">
         <v>212</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E47">
         <v>275</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="F47">
         <v>226</v>
       </c>
-      <c r="G47" s="1">
-        <f>SUM(B47,C47,D47,E47,F47)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
         <v>43980</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48">
         <v>3436</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C48">
         <v>406</v>
       </c>
-      <c r="D48" s="1" t="n">
+      <c r="D48">
         <v>220</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E48">
         <v>302</v>
       </c>
-      <c r="F48" s="1" t="n">
+      <c r="F48">
         <v>243</v>
       </c>
-      <c r="G48" s="1">
-        <f>SUM(B48,C48,D48,E48,F48)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>4607</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
         <v>43981</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49">
         <v>3525</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C49">
         <v>416</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D49">
         <v>232</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E49">
         <v>311</v>
       </c>
-      <c r="F49" s="1" t="n">
+      <c r="F49">
         <v>255</v>
       </c>
-      <c r="G49" s="1">
-        <f>SUM(B49,C49,D49,E49,F49)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
         <v>43982</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50">
         <v>3750</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C50">
         <v>466</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D50">
         <v>242</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E50">
         <v>358</v>
       </c>
-      <c r="F50" s="1" t="n">
+      <c r="F50">
         <v>271</v>
       </c>
-      <c r="G50" s="1">
-        <f>SUM(B50,C50,D50,E50,F50)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="n">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
         <v>43983</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>3946</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>471</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>251</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>393</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>275</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
+        <f t="shared" si="1"/>
         <v>5336</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="5" t="n">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
         <v>43984</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>4146</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>488</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>258</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>401</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>293</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
+        <f t="shared" si="1"/>
         <v>5586</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="6" t="n">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
         <v>43985</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>4277</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>499</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>267</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>422</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>295</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
+        <f t="shared" si="1"/>
         <v>5760</v>
       </c>
     </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>43986</v>
+      </c>
+      <c r="B54">
+        <v>4531</v>
+      </c>
+      <c r="C54">
+        <v>583</v>
+      </c>
+      <c r="D54">
+        <v>275</v>
+      </c>
+      <c r="E54">
+        <v>449</v>
+      </c>
+      <c r="F54">
+        <v>316</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>43987</v>
+      </c>
+      <c r="B55">
+        <v>4768</v>
+      </c>
+      <c r="C55">
+        <v>621</v>
+      </c>
+      <c r="D55">
+        <v>290</v>
+      </c>
+      <c r="E55">
+        <v>481</v>
+      </c>
+      <c r="F55">
+        <v>325</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>6485</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>43988</v>
+      </c>
+      <c r="B56">
+        <v>4986</v>
+      </c>
+      <c r="C56">
+        <v>643</v>
+      </c>
+      <c r="D56">
+        <v>298</v>
+      </c>
+      <c r="E56">
+        <v>523</v>
+      </c>
+      <c r="F56">
+        <v>342</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>6792</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>43989</v>
+      </c>
+      <c r="B57">
+        <v>5182</v>
+      </c>
+      <c r="C57">
+        <v>673</v>
+      </c>
+      <c r="D57">
+        <v>308</v>
+      </c>
+      <c r="E57">
+        <v>541</v>
+      </c>
+      <c r="F57">
+        <v>351</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>7055</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>43991</v>
+      </c>
+      <c r="B58">
+        <v>5757</v>
+      </c>
+      <c r="C58">
+        <v>753</v>
+      </c>
+      <c r="D58">
+        <v>378</v>
+      </c>
+      <c r="E58">
+        <v>589</v>
+      </c>
+      <c r="F58">
+        <v>389</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>7866</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>43992</v>
+      </c>
+      <c r="B59" s="5">
+        <v>5998</v>
+      </c>
+      <c r="C59" s="5">
+        <v>800</v>
+      </c>
+      <c r="D59" s="5">
+        <v>397</v>
+      </c>
+      <c r="E59" s="5">
+        <v>616</v>
+      </c>
+      <c r="F59" s="5">
+        <v>410</v>
+      </c>
+      <c r="G59" s="5">
+        <v>8221</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G16">
-    <sortState ref="A2:G41">
+  <autoFilter ref="A1:G16" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G41">
       <sortCondition ref="A1:A16"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>43981</v>
+      </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>93</v>
+      </c>
+      <c r="D2">
+        <v>158</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>115</v>
+      </c>
+      <c r="G2">
+        <v>102</v>
+      </c>
+      <c r="H2">
+        <v>3267</v>
+      </c>
+      <c r="I2">
+        <v>61</v>
+      </c>
+      <c r="J2">
+        <v>39</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>51</v>
+      </c>
+      <c r="M2">
+        <v>17</v>
+      </c>
+      <c r="N2">
+        <v>98</v>
+      </c>
+      <c r="O2">
+        <v>40</v>
+      </c>
+      <c r="P2">
+        <v>32</v>
+      </c>
+      <c r="Q2">
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <v>224</v>
+      </c>
+      <c r="S2">
+        <v>71</v>
+      </c>
+      <c r="T2">
+        <v>79</v>
+      </c>
+      <c r="U2">
+        <v>55</v>
+      </c>
+      <c r="V2">
+        <v>33</v>
+      </c>
+      <c r="W2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>43982</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>174</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>122</v>
+      </c>
+      <c r="G3">
+        <v>114</v>
+      </c>
+      <c r="H3">
+        <v>3462</v>
+      </c>
+      <c r="I3">
+        <v>61</v>
+      </c>
+      <c r="J3">
+        <v>40</v>
+      </c>
+      <c r="K3">
+        <v>21</v>
+      </c>
+      <c r="L3">
+        <v>56</v>
+      </c>
+      <c r="M3">
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
+        <v>40</v>
+      </c>
+      <c r="P3">
+        <v>32</v>
+      </c>
+      <c r="Q3">
+        <v>114</v>
+      </c>
+      <c r="R3">
+        <v>271</v>
+      </c>
+      <c r="S3">
+        <v>97</v>
+      </c>
+      <c r="T3">
+        <v>80</v>
+      </c>
+      <c r="U3">
+        <v>59</v>
+      </c>
+      <c r="V3">
+        <v>34</v>
+      </c>
+      <c r="W3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>43983</v>
+      </c>
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>101</v>
+      </c>
+      <c r="D4">
+        <v>178</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>126</v>
+      </c>
+      <c r="G4">
+        <v>131</v>
+      </c>
+      <c r="H4">
+        <v>3645</v>
+      </c>
+      <c r="I4">
+        <v>61</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>64</v>
+      </c>
+      <c r="M4">
+        <v>19</v>
+      </c>
+      <c r="N4">
+        <v>101</v>
+      </c>
+      <c r="O4">
+        <v>42</v>
+      </c>
+      <c r="P4">
+        <v>33</v>
+      </c>
+      <c r="Q4">
+        <v>123</v>
+      </c>
+      <c r="R4">
+        <v>274</v>
+      </c>
+      <c r="S4">
+        <v>99</v>
+      </c>
+      <c r="T4">
+        <v>80</v>
+      </c>
+      <c r="U4">
+        <v>66</v>
+      </c>
+      <c r="V4">
+        <v>35</v>
+      </c>
+      <c r="W4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>43984</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>103</v>
+      </c>
+      <c r="D5">
+        <v>181</v>
+      </c>
+      <c r="E5">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>127</v>
+      </c>
+      <c r="G5">
+        <v>134</v>
+      </c>
+      <c r="H5">
+        <v>3835</v>
+      </c>
+      <c r="I5">
+        <v>61</v>
+      </c>
+      <c r="J5">
+        <v>44</v>
+      </c>
+      <c r="K5">
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <v>66</v>
+      </c>
+      <c r="M5">
+        <v>19</v>
+      </c>
+      <c r="N5">
+        <v>103</v>
+      </c>
+      <c r="O5">
+        <v>42</v>
+      </c>
+      <c r="P5">
+        <v>34</v>
+      </c>
+      <c r="Q5">
+        <v>130</v>
+      </c>
+      <c r="R5">
+        <v>288</v>
+      </c>
+      <c r="S5">
+        <v>100</v>
+      </c>
+      <c r="T5">
+        <v>94</v>
+      </c>
+      <c r="U5">
+        <v>67</v>
+      </c>
+      <c r="V5">
+        <v>36</v>
+      </c>
+      <c r="W5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>43985</v>
+      </c>
+      <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>105</v>
+      </c>
+      <c r="D6">
+        <v>194</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>132</v>
+      </c>
+      <c r="G6">
+        <v>142</v>
+      </c>
+      <c r="H6">
+        <v>3945</v>
+      </c>
+      <c r="I6">
+        <v>61</v>
+      </c>
+      <c r="J6">
+        <v>44</v>
+      </c>
+      <c r="K6">
+        <v>23</v>
+      </c>
+      <c r="L6">
+        <v>71</v>
+      </c>
+      <c r="M6">
+        <v>19</v>
+      </c>
+      <c r="N6">
+        <v>106</v>
+      </c>
+      <c r="O6">
+        <v>42</v>
+      </c>
+      <c r="P6">
+        <v>37</v>
+      </c>
+      <c r="Q6">
+        <v>138</v>
+      </c>
+      <c r="R6">
+        <v>296</v>
+      </c>
+      <c r="S6">
+        <v>103</v>
+      </c>
+      <c r="T6">
+        <v>94</v>
+      </c>
+      <c r="U6">
+        <v>69</v>
+      </c>
+      <c r="V6">
+        <v>36</v>
+      </c>
+      <c r="W6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>43986</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>112</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>138</v>
+      </c>
+      <c r="G7">
+        <v>146</v>
+      </c>
+      <c r="H7">
+        <v>4186</v>
+      </c>
+      <c r="I7">
+        <v>65</v>
+      </c>
+      <c r="J7">
+        <v>45</v>
+      </c>
+      <c r="K7">
+        <v>23</v>
+      </c>
+      <c r="L7">
+        <v>74</v>
+      </c>
+      <c r="M7">
+        <v>19</v>
+      </c>
+      <c r="N7">
+        <v>140</v>
+      </c>
+      <c r="O7">
+        <v>46</v>
+      </c>
+      <c r="P7">
+        <v>38</v>
+      </c>
+      <c r="Q7">
+        <v>145</v>
+      </c>
+      <c r="R7">
+        <v>338</v>
+      </c>
+      <c r="S7">
+        <v>115</v>
+      </c>
+      <c r="T7">
+        <v>103</v>
+      </c>
+      <c r="U7">
+        <v>76</v>
+      </c>
+      <c r="V7">
+        <v>40</v>
+      </c>
+      <c r="W7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>43987</v>
+      </c>
+      <c r="B8">
+        <v>39</v>
+      </c>
+      <c r="C8">
+        <v>112</v>
+      </c>
+      <c r="D8">
+        <v>202</v>
+      </c>
+      <c r="E8">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>138</v>
+      </c>
+      <c r="G8">
+        <v>149</v>
+      </c>
+      <c r="H8">
+        <v>4417</v>
+      </c>
+      <c r="I8">
+        <v>66</v>
+      </c>
+      <c r="J8">
+        <v>45</v>
+      </c>
+      <c r="K8">
+        <v>23</v>
+      </c>
+      <c r="L8">
+        <v>95</v>
+      </c>
+      <c r="M8">
+        <v>25</v>
+      </c>
+      <c r="N8">
+        <v>156</v>
+      </c>
+      <c r="O8">
+        <v>46</v>
+      </c>
+      <c r="P8">
+        <v>41</v>
+      </c>
+      <c r="Q8">
+        <v>149</v>
+      </c>
+      <c r="R8">
+        <v>359</v>
+      </c>
+      <c r="S8">
+        <v>119</v>
+      </c>
+      <c r="T8">
+        <v>103</v>
+      </c>
+      <c r="U8">
+        <v>77</v>
+      </c>
+      <c r="V8">
+        <v>40</v>
+      </c>
+      <c r="W8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>43988</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>113</v>
+      </c>
+      <c r="D9">
+        <v>221</v>
+      </c>
+      <c r="E9">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>138</v>
+      </c>
+      <c r="G9">
+        <v>167</v>
+      </c>
+      <c r="H9">
+        <v>4600</v>
+      </c>
+      <c r="I9">
+        <v>71</v>
+      </c>
+      <c r="J9">
+        <v>47</v>
+      </c>
+      <c r="K9">
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>102</v>
+      </c>
+      <c r="M9">
+        <v>31</v>
+      </c>
+      <c r="N9">
+        <v>156</v>
+      </c>
+      <c r="O9">
+        <v>47</v>
+      </c>
+      <c r="P9">
+        <v>49</v>
+      </c>
+      <c r="Q9">
+        <v>165</v>
+      </c>
+      <c r="R9">
+        <v>375</v>
+      </c>
+      <c r="S9">
+        <v>127</v>
+      </c>
+      <c r="T9">
+        <v>103</v>
+      </c>
+      <c r="U9">
+        <v>78</v>
+      </c>
+      <c r="V9">
+        <v>41</v>
+      </c>
+      <c r="W9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>43989</v>
+      </c>
+      <c r="B10">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>115</v>
+      </c>
+      <c r="D10">
+        <v>224</v>
+      </c>
+      <c r="E10">
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>138</v>
+      </c>
+      <c r="G10">
+        <v>172</v>
+      </c>
+      <c r="H10">
+        <v>4786</v>
+      </c>
+      <c r="I10">
+        <v>71</v>
+      </c>
+      <c r="J10">
+        <v>51</v>
+      </c>
+      <c r="K10">
+        <v>23</v>
+      </c>
+      <c r="L10">
+        <v>102</v>
+      </c>
+      <c r="M10">
+        <v>32</v>
+      </c>
+      <c r="N10">
+        <v>162</v>
+      </c>
+      <c r="O10">
+        <v>48</v>
+      </c>
+      <c r="P10">
+        <v>55</v>
+      </c>
+      <c r="Q10">
+        <v>172</v>
+      </c>
+      <c r="R10">
+        <v>398</v>
+      </c>
+      <c r="S10">
+        <v>133</v>
+      </c>
+      <c r="T10">
+        <v>105</v>
+      </c>
+      <c r="U10">
+        <v>79</v>
+      </c>
+      <c r="V10">
+        <v>42</v>
+      </c>
+      <c r="W10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>43991</v>
+      </c>
+      <c r="B11">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <v>236</v>
+      </c>
+      <c r="E11">
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <v>201</v>
+      </c>
+      <c r="G11">
+        <v>195</v>
+      </c>
+      <c r="H11">
+        <v>5336</v>
+      </c>
+      <c r="I11">
+        <v>72</v>
+      </c>
+      <c r="J11">
+        <v>51</v>
+      </c>
+      <c r="K11">
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <v>102</v>
+      </c>
+      <c r="M11">
+        <v>44</v>
+      </c>
+      <c r="N11">
+        <v>196</v>
+      </c>
+      <c r="O11">
+        <v>50</v>
+      </c>
+      <c r="P11">
+        <v>61</v>
+      </c>
+      <c r="Q11">
+        <v>185</v>
+      </c>
+      <c r="R11">
+        <v>443</v>
+      </c>
+      <c r="S11">
+        <v>141</v>
+      </c>
+      <c r="T11">
+        <v>120</v>
+      </c>
+      <c r="U11">
+        <v>90</v>
+      </c>
+      <c r="V11">
+        <v>42</v>
+      </c>
+      <c r="W11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>43992</v>
+      </c>
+      <c r="B12" s="5">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5">
+        <v>123</v>
+      </c>
+      <c r="D12" s="5">
+        <v>239</v>
+      </c>
+      <c r="E12" s="5">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5">
+        <v>205</v>
+      </c>
+      <c r="G12" s="5">
+        <v>212</v>
+      </c>
+      <c r="H12" s="5">
+        <v>5571</v>
+      </c>
+      <c r="I12" s="5">
+        <v>77</v>
+      </c>
+      <c r="J12" s="5">
+        <v>59</v>
+      </c>
+      <c r="K12" s="5">
+        <v>23</v>
+      </c>
+      <c r="L12" s="5">
+        <v>105</v>
+      </c>
+      <c r="M12" s="5">
+        <v>53</v>
+      </c>
+      <c r="N12" s="5">
+        <v>200</v>
+      </c>
+      <c r="O12" s="5">
+        <v>52</v>
+      </c>
+      <c r="P12" s="5">
+        <v>66</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>188</v>
+      </c>
+      <c r="R12" s="5">
+        <v>475</v>
+      </c>
+      <c r="S12" s="5">
+        <v>143</v>
+      </c>
+      <c r="T12" s="5">
+        <v>120</v>
+      </c>
+      <c r="U12" s="5">
+        <v>90</v>
+      </c>
+      <c r="V12" s="5">
+        <v>48</v>
+      </c>
+      <c r="W12" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRV\Desktop\Post-U\Scripts\Covid-19-GT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4BE927-D3EA-4615-BF55-D74981AB6B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDACFA91-7D2F-476B-A8B1-E2ACFB8C1BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos por región" sheetId="1" r:id="rId1"/>
@@ -130,13 +130,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -171,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,9 +188,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -500,17 +507,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -561,7 +568,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>43935</v>
       </c>
       <c r="B3">
@@ -585,7 +592,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="7">
         <v>43936</v>
       </c>
       <c r="B4">
@@ -609,7 +616,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="7">
         <v>43937</v>
       </c>
       <c r="B5">
@@ -633,7 +640,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="7">
         <v>43938</v>
       </c>
       <c r="B6">
@@ -657,7 +664,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="7">
         <v>43939</v>
       </c>
       <c r="B7">
@@ -681,7 +688,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="7">
         <v>43940</v>
       </c>
       <c r="B8">
@@ -705,7 +712,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="7">
         <v>43941</v>
       </c>
       <c r="B9">
@@ -729,7 +736,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="7">
         <v>43942</v>
       </c>
       <c r="B10">
@@ -753,7 +760,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="7">
         <v>43943</v>
       </c>
       <c r="B11">
@@ -777,7 +784,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="7">
         <v>43944</v>
       </c>
       <c r="B12">
@@ -801,7 +808,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="7">
         <v>43945</v>
       </c>
       <c r="B13">
@@ -825,7 +832,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="7">
         <v>43946</v>
       </c>
       <c r="B14">
@@ -849,7 +856,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="7">
         <v>43947</v>
       </c>
       <c r="B15">
@@ -873,7 +880,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="7">
         <v>43948</v>
       </c>
       <c r="B16">
@@ -897,7 +904,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="7">
         <v>43949</v>
       </c>
       <c r="B17">
@@ -921,7 +928,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="7">
         <v>43950</v>
       </c>
       <c r="B18">
@@ -945,7 +952,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="7">
         <v>43951</v>
       </c>
       <c r="B19">
@@ -969,7 +976,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="7">
         <v>43952</v>
       </c>
       <c r="B20">
@@ -993,7 +1000,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="7">
         <v>43953</v>
       </c>
       <c r="B21">
@@ -1017,7 +1024,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="7">
         <v>43954</v>
       </c>
       <c r="B22">
@@ -1041,7 +1048,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23" s="7">
         <v>43955</v>
       </c>
       <c r="B23">
@@ -1065,7 +1072,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="7">
         <v>43956</v>
       </c>
       <c r="B24">
@@ -1089,7 +1096,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25" s="7">
         <v>43957</v>
       </c>
       <c r="B25">
@@ -1113,7 +1120,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="7">
         <v>43958</v>
       </c>
       <c r="B26">
@@ -1137,7 +1144,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="7">
         <v>43959</v>
       </c>
       <c r="B27">
@@ -1161,7 +1168,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="7">
         <v>43960</v>
       </c>
       <c r="B28">
@@ -1185,7 +1192,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29" s="7">
         <v>43961</v>
       </c>
       <c r="B29">
@@ -1209,7 +1216,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="A30" s="7">
         <v>43962</v>
       </c>
       <c r="B30">
@@ -1233,7 +1240,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31" s="7">
         <v>43963</v>
       </c>
       <c r="B31">
@@ -1257,7 +1264,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="A32" s="7">
         <v>43964</v>
       </c>
       <c r="B32">
@@ -1281,7 +1288,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33" s="7">
         <v>43965</v>
       </c>
       <c r="B33">
@@ -1305,7 +1312,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="A34" s="7">
         <v>43966</v>
       </c>
       <c r="B34">
@@ -1324,12 +1331,12 @@
         <v>136</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G58" si="1">SUM(B34,C34,D34,E34,F34)</f>
+        <f t="shared" ref="G34:G65" si="1">SUM(B34,C34,D34,E34,F34)</f>
         <v>1643</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35" s="7">
         <v>43967</v>
       </c>
       <c r="B35">
@@ -1353,7 +1360,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="A36" s="7">
         <v>43968</v>
       </c>
       <c r="B36">
@@ -1377,7 +1384,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+      <c r="A37" s="7">
         <v>43969</v>
       </c>
       <c r="B37">
@@ -1401,7 +1408,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="A38" s="7">
         <v>43970</v>
       </c>
       <c r="B38">
@@ -1425,7 +1432,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="A39" s="7">
         <v>43971</v>
       </c>
       <c r="B39">
@@ -1449,7 +1456,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+      <c r="A40" s="7">
         <v>43972</v>
       </c>
       <c r="B40">
@@ -1473,7 +1480,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+      <c r="A41" s="7">
         <v>43973</v>
       </c>
       <c r="B41">
@@ -1497,7 +1504,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="A42" s="7">
         <v>43974</v>
       </c>
       <c r="B42">
@@ -1521,7 +1528,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+      <c r="A43" s="7">
         <v>43975</v>
       </c>
       <c r="B43">
@@ -1545,7 +1552,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+      <c r="A44" s="7">
         <v>43976</v>
       </c>
       <c r="B44">
@@ -1569,7 +1576,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+      <c r="A45" s="7">
         <v>43977</v>
       </c>
       <c r="B45">
@@ -1593,7 +1600,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+      <c r="A46" s="7">
         <v>43978</v>
       </c>
       <c r="B46">
@@ -1617,7 +1624,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+      <c r="A47" s="7">
         <v>43979</v>
       </c>
       <c r="B47">
@@ -1641,7 +1648,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+      <c r="A48" s="7">
         <v>43980</v>
       </c>
       <c r="B48">
@@ -1665,7 +1672,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+      <c r="A49" s="7">
         <v>43981</v>
       </c>
       <c r="B49">
@@ -1689,7 +1696,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+      <c r="A50" s="7">
         <v>43982</v>
       </c>
       <c r="B50">
@@ -1713,7 +1720,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+      <c r="A51" s="7">
         <v>43983</v>
       </c>
       <c r="B51">
@@ -1737,7 +1744,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
+      <c r="A52" s="7">
         <v>43984</v>
       </c>
       <c r="B52">
@@ -1761,7 +1768,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+      <c r="A53" s="7">
         <v>43985</v>
       </c>
       <c r="B53">
@@ -1785,7 +1792,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
+      <c r="A54" s="7">
         <v>43986</v>
       </c>
       <c r="B54">
@@ -1809,7 +1816,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
+      <c r="A55" s="7">
         <v>43987</v>
       </c>
       <c r="B55">
@@ -1833,7 +1840,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
+      <c r="A56" s="7">
         <v>43988</v>
       </c>
       <c r="B56">
@@ -1857,7 +1864,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
+      <c r="A57" s="7">
         <v>43989</v>
       </c>
       <c r="B57">
@@ -1881,50 +1888,189 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>43991</v>
+      <c r="A58" s="7">
+        <v>43990</v>
       </c>
       <c r="B58">
-        <v>5757</v>
+        <v>5520</v>
       </c>
       <c r="C58">
-        <v>753</v>
+        <v>685</v>
       </c>
       <c r="D58">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E58">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="F58">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="G58">
         <f t="shared" si="1"/>
-        <v>7866</v>
+        <v>7502</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
+        <v>43991</v>
+      </c>
+      <c r="B59">
+        <v>5757</v>
+      </c>
+      <c r="C59">
+        <v>753</v>
+      </c>
+      <c r="D59">
+        <v>378</v>
+      </c>
+      <c r="E59">
+        <v>589</v>
+      </c>
+      <c r="F59">
+        <v>389</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>7866</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
         <v>43992</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B60">
         <v>5998</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C60">
         <v>800</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D60">
         <v>397</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E60">
         <v>616</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F60">
         <v>410</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G60">
         <v>8221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>43993</v>
+      </c>
+      <c r="B61">
+        <v>6280</v>
+      </c>
+      <c r="C61">
+        <v>830</v>
+      </c>
+      <c r="D61">
+        <v>407</v>
+      </c>
+      <c r="E61">
+        <v>626</v>
+      </c>
+      <c r="F61">
+        <v>418</v>
+      </c>
+      <c r="G61">
+        <v>8561</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>43994</v>
+      </c>
+      <c r="B62">
+        <v>6587</v>
+      </c>
+      <c r="C62">
+        <v>865</v>
+      </c>
+      <c r="D62">
+        <v>420</v>
+      </c>
+      <c r="E62">
+        <v>667</v>
+      </c>
+      <c r="F62">
+        <v>443</v>
+      </c>
+      <c r="G62">
+        <v>8982</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>43995</v>
+      </c>
+      <c r="B63">
+        <v>7016</v>
+      </c>
+      <c r="C63">
+        <v>889</v>
+      </c>
+      <c r="D63">
+        <v>429</v>
+      </c>
+      <c r="E63">
+        <v>685</v>
+      </c>
+      <c r="F63">
+        <v>472</v>
+      </c>
+      <c r="G63">
+        <v>9491</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>43996</v>
+      </c>
+      <c r="B64">
+        <v>7297</v>
+      </c>
+      <c r="C64">
+        <v>902</v>
+      </c>
+      <c r="D64">
+        <v>448</v>
+      </c>
+      <c r="E64">
+        <v>713</v>
+      </c>
+      <c r="F64">
+        <v>485</v>
+      </c>
+      <c r="G64">
+        <v>9845</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>43997</v>
+      </c>
+      <c r="B65">
+        <v>7629</v>
+      </c>
+      <c r="C65">
+        <v>945</v>
+      </c>
+      <c r="D65">
+        <v>462</v>
+      </c>
+      <c r="E65">
+        <v>739</v>
+      </c>
+      <c r="F65">
+        <v>497</v>
+      </c>
+      <c r="G65">
+        <v>10272</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +2089,7 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2020,7 +2166,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>43981</v>
       </c>
       <c r="B2">
@@ -2091,7 +2237,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>43982</v>
       </c>
       <c r="B3">
@@ -2162,7 +2308,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>43983</v>
       </c>
       <c r="B4">
@@ -2233,7 +2379,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>43984</v>
       </c>
       <c r="B5">
@@ -2304,7 +2450,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>43985</v>
       </c>
       <c r="B6">
@@ -2375,7 +2521,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>43986</v>
       </c>
       <c r="B7">
@@ -2446,7 +2592,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>43987</v>
       </c>
       <c r="B8">
@@ -2517,7 +2663,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>43988</v>
       </c>
       <c r="B9">
@@ -2588,7 +2734,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>43989</v>
       </c>
       <c r="B10">
@@ -2659,7 +2805,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>43991</v>
       </c>
       <c r="B11">
@@ -2730,74 +2876,429 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>43992</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>62</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>123</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12">
         <v>239</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12">
         <v>42</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>205</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12">
         <v>212</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12">
         <v>5571</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12">
         <v>77</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12">
         <v>59</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12">
         <v>23</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12">
         <v>105</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12">
         <v>53</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12">
         <v>200</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12">
         <v>52</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12">
         <v>66</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12">
         <v>188</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12">
         <v>475</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12">
         <v>143</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12">
         <v>120</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12">
         <v>90</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12">
         <v>48</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12">
         <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>43993</v>
+      </c>
+      <c r="B13" s="6">
+        <v>63</v>
+      </c>
+      <c r="C13" s="6">
+        <v>124</v>
+      </c>
+      <c r="D13" s="6">
+        <v>242</v>
+      </c>
+      <c r="E13" s="6">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6">
+        <v>206</v>
+      </c>
+      <c r="G13" s="6">
+        <v>213</v>
+      </c>
+      <c r="H13" s="6">
+        <v>5847</v>
+      </c>
+      <c r="I13" s="6">
+        <v>77</v>
+      </c>
+      <c r="J13" s="6">
+        <v>62</v>
+      </c>
+      <c r="K13" s="6">
+        <v>23</v>
+      </c>
+      <c r="L13" s="6">
+        <v>107</v>
+      </c>
+      <c r="M13" s="6">
+        <v>57</v>
+      </c>
+      <c r="N13" s="6">
+        <v>222</v>
+      </c>
+      <c r="O13" s="6">
+        <v>53</v>
+      </c>
+      <c r="P13" s="6">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>191</v>
+      </c>
+      <c r="R13" s="6">
+        <v>482</v>
+      </c>
+      <c r="S13" s="6">
+        <v>143</v>
+      </c>
+      <c r="T13" s="6">
+        <v>121</v>
+      </c>
+      <c r="U13" s="6">
+        <v>95</v>
+      </c>
+      <c r="V13" s="6">
+        <v>49</v>
+      </c>
+      <c r="W13" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>43994</v>
+      </c>
+      <c r="B14">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <v>124</v>
+      </c>
+      <c r="D14">
+        <v>258</v>
+      </c>
+      <c r="E14">
+        <v>42</v>
+      </c>
+      <c r="F14">
+        <v>211</v>
+      </c>
+      <c r="G14">
+        <v>237</v>
+      </c>
+      <c r="H14">
+        <v>6102</v>
+      </c>
+      <c r="I14">
+        <v>81</v>
+      </c>
+      <c r="J14">
+        <v>66</v>
+      </c>
+      <c r="K14">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <v>108</v>
+      </c>
+      <c r="M14">
+        <v>70</v>
+      </c>
+      <c r="N14">
+        <v>238</v>
+      </c>
+      <c r="O14">
+        <v>55</v>
+      </c>
+      <c r="P14">
+        <v>69</v>
+      </c>
+      <c r="Q14">
+        <v>227</v>
+      </c>
+      <c r="R14">
+        <v>496</v>
+      </c>
+      <c r="S14">
+        <v>157</v>
+      </c>
+      <c r="T14">
+        <v>130</v>
+      </c>
+      <c r="U14">
+        <v>96</v>
+      </c>
+      <c r="V14">
+        <v>50</v>
+      </c>
+      <c r="W14">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>43995</v>
+      </c>
+      <c r="B15">
+        <v>67</v>
+      </c>
+      <c r="C15">
+        <v>127</v>
+      </c>
+      <c r="D15">
+        <v>263</v>
+      </c>
+      <c r="E15">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>214</v>
+      </c>
+      <c r="G15">
+        <v>243</v>
+      </c>
+      <c r="H15">
+        <v>6510</v>
+      </c>
+      <c r="I15">
+        <v>81</v>
+      </c>
+      <c r="J15">
+        <v>71</v>
+      </c>
+      <c r="K15">
+        <v>25</v>
+      </c>
+      <c r="L15">
+        <v>112</v>
+      </c>
+      <c r="M15">
+        <v>78</v>
+      </c>
+      <c r="N15">
+        <v>255</v>
+      </c>
+      <c r="O15">
+        <v>57</v>
+      </c>
+      <c r="P15">
+        <v>72</v>
+      </c>
+      <c r="Q15">
+        <v>243</v>
+      </c>
+      <c r="R15">
+        <v>502</v>
+      </c>
+      <c r="S15">
+        <v>160</v>
+      </c>
+      <c r="T15">
+        <v>143</v>
+      </c>
+      <c r="U15">
+        <v>98</v>
+      </c>
+      <c r="V15">
+        <v>51</v>
+      </c>
+      <c r="W15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>43996</v>
+      </c>
+      <c r="B16" s="4">
+        <v>73</v>
+      </c>
+      <c r="C16" s="4">
+        <v>129</v>
+      </c>
+      <c r="D16" s="4">
+        <v>263</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43</v>
+      </c>
+      <c r="F16" s="4">
+        <v>222</v>
+      </c>
+      <c r="G16" s="4">
+        <v>259</v>
+      </c>
+      <c r="H16" s="4">
+        <v>6782</v>
+      </c>
+      <c r="I16" s="4">
+        <v>82</v>
+      </c>
+      <c r="J16" s="4">
+        <v>76</v>
+      </c>
+      <c r="K16" s="4">
+        <v>29</v>
+      </c>
+      <c r="L16" s="4">
+        <v>115</v>
+      </c>
+      <c r="M16" s="4">
+        <v>79</v>
+      </c>
+      <c r="N16" s="4">
+        <v>262</v>
+      </c>
+      <c r="O16" s="4">
+        <v>58</v>
+      </c>
+      <c r="P16" s="4">
+        <v>73</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>252</v>
+      </c>
+      <c r="R16" s="4">
+        <v>504</v>
+      </c>
+      <c r="S16" s="4">
+        <v>163</v>
+      </c>
+      <c r="T16" s="4">
+        <v>146</v>
+      </c>
+      <c r="U16" s="4">
+        <v>103</v>
+      </c>
+      <c r="V16" s="4">
+        <v>54</v>
+      </c>
+      <c r="W16" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>43997</v>
+      </c>
+      <c r="B17" s="4">
+        <v>74</v>
+      </c>
+      <c r="C17" s="4">
+        <v>131</v>
+      </c>
+      <c r="D17" s="4">
+        <v>272</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45</v>
+      </c>
+      <c r="F17" s="4">
+        <v>227</v>
+      </c>
+      <c r="G17" s="4">
+        <v>271</v>
+      </c>
+      <c r="H17" s="4">
+        <v>7072</v>
+      </c>
+      <c r="I17" s="4">
+        <v>91</v>
+      </c>
+      <c r="J17" s="4">
+        <v>80</v>
+      </c>
+      <c r="K17" s="4">
+        <v>29</v>
+      </c>
+      <c r="L17" s="4">
+        <v>119</v>
+      </c>
+      <c r="M17" s="4">
+        <v>81</v>
+      </c>
+      <c r="N17" s="4">
+        <v>273</v>
+      </c>
+      <c r="O17" s="4">
+        <v>60</v>
+      </c>
+      <c r="P17" s="4">
+        <v>73</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>285</v>
+      </c>
+      <c r="R17" s="4">
+        <v>527</v>
+      </c>
+      <c r="S17" s="4">
+        <v>168</v>
+      </c>
+      <c r="T17" s="4">
+        <v>151</v>
+      </c>
+      <c r="U17" s="4">
+        <v>108</v>
+      </c>
+      <c r="V17" s="4">
+        <v>54</v>
+      </c>
+      <c r="W17" s="4">
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">

--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRV\Desktop\Post-U\Scripts\Covid-19-GT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDACFA91-7D2F-476B-A8B1-E2ACFB8C1BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F0C04A-6820-423C-B111-85F031B0EBDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos por región" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2005,7 +2005,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
+      <c r="A63" s="7">
         <v>43995</v>
       </c>
       <c r="B63">
@@ -2028,7 +2028,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
+      <c r="A64" s="7">
         <v>43996</v>
       </c>
       <c r="B64">
@@ -2086,13 +2086,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3163,146 +3166,146 @@
       <c r="A16" s="5">
         <v>43996</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>73</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>129</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>263</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16">
         <v>43</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16">
         <v>222</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16">
         <v>259</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16">
         <v>6782</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16">
         <v>82</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16">
         <v>76</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16">
         <v>29</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16">
         <v>115</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16">
         <v>79</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16">
         <v>262</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16">
         <v>58</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16">
         <v>73</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16">
         <v>252</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16">
         <v>504</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16">
         <v>163</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16">
         <v>146</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16">
         <v>103</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16">
         <v>54</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="8">
         <v>43997</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>74</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>131</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>272</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17">
         <v>45</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17">
         <v>227</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17">
         <v>271</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17">
         <v>7072</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17">
         <v>91</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17">
         <v>80</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17">
         <v>29</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17">
         <v>119</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17">
         <v>81</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17">
         <v>273</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17">
         <v>60</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17">
         <v>73</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17">
         <v>285</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17">
         <v>527</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17">
         <v>168</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17">
         <v>151</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17">
         <v>108</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17">
         <v>54</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17">
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -395,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
@@ -1996,6 +1996,29 @@
       </c>
       <c r="G66" t="n">
         <v>10706</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>8354</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1045</v>
+      </c>
+      <c r="D67" t="n">
+        <v>482</v>
+      </c>
+      <c r="E67" t="n">
+        <v>821</v>
+      </c>
+      <c r="F67" t="n">
+        <v>549</v>
+      </c>
+      <c r="G67" t="n">
+        <v>11251</v>
       </c>
     </row>
   </sheetData>
@@ -3350,6 +3373,77 @@
         <v>87</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="9" t="n">
+        <v>43999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>77</v>
+      </c>
+      <c r="C19" t="n">
+        <v>134</v>
+      </c>
+      <c r="D19" t="n">
+        <v>283</v>
+      </c>
+      <c r="E19" t="n">
+        <v>49</v>
+      </c>
+      <c r="F19" t="n">
+        <v>231</v>
+      </c>
+      <c r="G19" t="n">
+        <v>321</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7703</v>
+      </c>
+      <c r="I19" t="n">
+        <v>98</v>
+      </c>
+      <c r="J19" t="n">
+        <v>82</v>
+      </c>
+      <c r="K19" t="n">
+        <v>31</v>
+      </c>
+      <c r="L19" t="n">
+        <v>123</v>
+      </c>
+      <c r="M19" t="n">
+        <v>108</v>
+      </c>
+      <c r="N19" t="n">
+        <v>333</v>
+      </c>
+      <c r="O19" t="n">
+        <v>61</v>
+      </c>
+      <c r="P19" t="n">
+        <v>79</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>368</v>
+      </c>
+      <c r="R19" t="n">
+        <v>556</v>
+      </c>
+      <c r="S19" t="n">
+        <v>180</v>
+      </c>
+      <c r="T19" t="n">
+        <v>169</v>
+      </c>
+      <c r="U19" t="n">
+        <v>118</v>
+      </c>
+      <c r="V19" t="n">
+        <v>58</v>
+      </c>
+      <c r="W19" t="n">
+        <v>89</v>
+      </c>
+    </row>
     <row r="57">
       <c r="A57" s="8" t="n"/>
     </row>

--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -395,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
@@ -2019,6 +2019,98 @@
       </c>
       <c r="G67" t="n">
         <v>11251</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B68" t="n">
+        <v>8770</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1134</v>
+      </c>
+      <c r="D68" t="n">
+        <v>521</v>
+      </c>
+      <c r="E68" t="n">
+        <v>882</v>
+      </c>
+      <c r="F68" t="n">
+        <v>561</v>
+      </c>
+      <c r="G68" t="n">
+        <v>11868</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B69" t="n">
+        <v>9236</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1176</v>
+      </c>
+      <c r="D69" t="n">
+        <v>539</v>
+      </c>
+      <c r="E69" t="n">
+        <v>977</v>
+      </c>
+      <c r="F69" t="n">
+        <v>581</v>
+      </c>
+      <c r="G69" t="n">
+        <v>12509</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9433</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1185</v>
+      </c>
+      <c r="D70" t="n">
+        <v>546</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1008</v>
+      </c>
+      <c r="F70" t="n">
+        <v>583</v>
+      </c>
+      <c r="G70" t="n">
+        <v>12755</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B71" t="n">
+        <v>9719</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1202</v>
+      </c>
+      <c r="D71" t="n">
+        <v>555</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1074</v>
+      </c>
+      <c r="F71" t="n">
+        <v>595</v>
+      </c>
+      <c r="G71" t="n">
+        <v>13145</v>
       </c>
     </row>
   </sheetData>
@@ -3444,6 +3536,290 @@
         <v>89</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="9" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B20" t="n">
+        <v>79</v>
+      </c>
+      <c r="C20" t="n">
+        <v>135</v>
+      </c>
+      <c r="D20" t="n">
+        <v>285</v>
+      </c>
+      <c r="E20" t="n">
+        <v>54</v>
+      </c>
+      <c r="F20" t="n">
+        <v>245</v>
+      </c>
+      <c r="G20" t="n">
+        <v>354</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8108</v>
+      </c>
+      <c r="I20" t="n">
+        <v>101</v>
+      </c>
+      <c r="J20" t="n">
+        <v>85</v>
+      </c>
+      <c r="K20" t="n">
+        <v>35</v>
+      </c>
+      <c r="L20" t="n">
+        <v>139</v>
+      </c>
+      <c r="M20" t="n">
+        <v>109</v>
+      </c>
+      <c r="N20" t="n">
+        <v>361</v>
+      </c>
+      <c r="O20" t="n">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>377</v>
+      </c>
+      <c r="R20" t="n">
+        <v>613</v>
+      </c>
+      <c r="S20" t="n">
+        <v>182</v>
+      </c>
+      <c r="T20" t="n">
+        <v>175</v>
+      </c>
+      <c r="U20" t="n">
+        <v>126</v>
+      </c>
+      <c r="V20" t="n">
+        <v>59</v>
+      </c>
+      <c r="W20" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="n">
+        <v>44001</v>
+      </c>
+      <c r="B21" t="n">
+        <v>83</v>
+      </c>
+      <c r="C21" t="n">
+        <v>139</v>
+      </c>
+      <c r="D21" t="n">
+        <v>292</v>
+      </c>
+      <c r="E21" t="n">
+        <v>54</v>
+      </c>
+      <c r="F21" t="n">
+        <v>253</v>
+      </c>
+      <c r="G21" t="n">
+        <v>427</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8536</v>
+      </c>
+      <c r="I21" t="n">
+        <v>106</v>
+      </c>
+      <c r="J21" t="n">
+        <v>87</v>
+      </c>
+      <c r="K21" t="n">
+        <v>36</v>
+      </c>
+      <c r="L21" t="n">
+        <v>143</v>
+      </c>
+      <c r="M21" t="n">
+        <v>113</v>
+      </c>
+      <c r="N21" t="n">
+        <v>394</v>
+      </c>
+      <c r="O21" t="n">
+        <v>64</v>
+      </c>
+      <c r="P21" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>408</v>
+      </c>
+      <c r="R21" t="n">
+        <v>617</v>
+      </c>
+      <c r="S21" t="n">
+        <v>194</v>
+      </c>
+      <c r="T21" t="n">
+        <v>182</v>
+      </c>
+      <c r="U21" t="n">
+        <v>132</v>
+      </c>
+      <c r="V21" t="n">
+        <v>59</v>
+      </c>
+      <c r="W21" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n">
+        <v>44002</v>
+      </c>
+      <c r="B22" t="n">
+        <v>85</v>
+      </c>
+      <c r="C22" t="n">
+        <v>139</v>
+      </c>
+      <c r="D22" t="n">
+        <v>293</v>
+      </c>
+      <c r="E22" t="n">
+        <v>54</v>
+      </c>
+      <c r="F22" t="n">
+        <v>254</v>
+      </c>
+      <c r="G22" t="n">
+        <v>449</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8724</v>
+      </c>
+      <c r="I22" t="n">
+        <v>106</v>
+      </c>
+      <c r="J22" t="n">
+        <v>91</v>
+      </c>
+      <c r="K22" t="n">
+        <v>36</v>
+      </c>
+      <c r="L22" t="n">
+        <v>145</v>
+      </c>
+      <c r="M22" t="n">
+        <v>113</v>
+      </c>
+      <c r="N22" t="n">
+        <v>395</v>
+      </c>
+      <c r="O22" t="n">
+        <v>64</v>
+      </c>
+      <c r="P22" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>416</v>
+      </c>
+      <c r="R22" t="n">
+        <v>625</v>
+      </c>
+      <c r="S22" t="n">
+        <v>197</v>
+      </c>
+      <c r="T22" t="n">
+        <v>182</v>
+      </c>
+      <c r="U22" t="n">
+        <v>136</v>
+      </c>
+      <c r="V22" t="n">
+        <v>59</v>
+      </c>
+      <c r="W22" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="n">
+        <v>44003</v>
+      </c>
+      <c r="B23" t="n">
+        <v>86</v>
+      </c>
+      <c r="C23" t="n">
+        <v>149</v>
+      </c>
+      <c r="D23" t="n">
+        <v>299</v>
+      </c>
+      <c r="E23" t="n">
+        <v>54</v>
+      </c>
+      <c r="F23" t="n">
+        <v>260</v>
+      </c>
+      <c r="G23" t="n">
+        <v>500</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8942</v>
+      </c>
+      <c r="I23" t="n">
+        <v>114</v>
+      </c>
+      <c r="J23" t="n">
+        <v>91</v>
+      </c>
+      <c r="K23" t="n">
+        <v>36</v>
+      </c>
+      <c r="L23" t="n">
+        <v>146</v>
+      </c>
+      <c r="M23" t="n">
+        <v>113</v>
+      </c>
+      <c r="N23" t="n">
+        <v>400</v>
+      </c>
+      <c r="O23" t="n">
+        <v>64</v>
+      </c>
+      <c r="P23" t="n">
+        <v>83</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>478</v>
+      </c>
+      <c r="R23" t="n">
+        <v>629</v>
+      </c>
+      <c r="S23" t="n">
+        <v>205</v>
+      </c>
+      <c r="T23" t="n">
+        <v>183</v>
+      </c>
+      <c r="U23" t="n">
+        <v>140</v>
+      </c>
+      <c r="V23" t="n">
+        <v>59</v>
+      </c>
+      <c r="W23" t="n">
+        <v>114</v>
+      </c>
+    </row>
     <row r="57">
       <c r="A57" s="8" t="n"/>
     </row>

--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -395,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
@@ -2111,6 +2111,75 @@
       </c>
       <c r="G71" t="n">
         <v>13145</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B72" t="n">
+        <v>10210</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1235</v>
+      </c>
+      <c r="D72" t="n">
+        <v>572</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1143</v>
+      </c>
+      <c r="F72" t="n">
+        <v>609</v>
+      </c>
+      <c r="G72" t="n">
+        <v>13769</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B73" t="n">
+        <v>10793</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1300</v>
+      </c>
+      <c r="D73" t="n">
+        <v>584</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1232</v>
+      </c>
+      <c r="F73" t="n">
+        <v>631</v>
+      </c>
+      <c r="G73" t="n">
+        <v>14540</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B74" t="n">
+        <v>11015</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1321</v>
+      </c>
+      <c r="D74" t="n">
+        <v>591</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1239</v>
+      </c>
+      <c r="F74" t="n">
+        <v>653</v>
+      </c>
+      <c r="G74" t="n">
+        <v>14819</v>
       </c>
     </row>
   </sheetData>
@@ -3820,6 +3889,219 @@
         <v>114</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="9" t="n">
+        <v>44004</v>
+      </c>
+      <c r="B24" t="n">
+        <v>96</v>
+      </c>
+      <c r="C24" t="n">
+        <v>149</v>
+      </c>
+      <c r="D24" t="n">
+        <v>306</v>
+      </c>
+      <c r="E24" t="n">
+        <v>58</v>
+      </c>
+      <c r="F24" t="n">
+        <v>262</v>
+      </c>
+      <c r="G24" t="n">
+        <v>556</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9409</v>
+      </c>
+      <c r="I24" t="n">
+        <v>114</v>
+      </c>
+      <c r="J24" t="n">
+        <v>93</v>
+      </c>
+      <c r="K24" t="n">
+        <v>37</v>
+      </c>
+      <c r="L24" t="n">
+        <v>146</v>
+      </c>
+      <c r="M24" t="n">
+        <v>114</v>
+      </c>
+      <c r="N24" t="n">
+        <v>427</v>
+      </c>
+      <c r="O24" t="n">
+        <v>66</v>
+      </c>
+      <c r="P24" t="n">
+        <v>86</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>495</v>
+      </c>
+      <c r="R24" t="n">
+        <v>633</v>
+      </c>
+      <c r="S24" t="n">
+        <v>210</v>
+      </c>
+      <c r="T24" t="n">
+        <v>184</v>
+      </c>
+      <c r="U24" t="n">
+        <v>145</v>
+      </c>
+      <c r="V24" t="n">
+        <v>61</v>
+      </c>
+      <c r="W24" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="n">
+        <v>44005</v>
+      </c>
+      <c r="B25" t="n">
+        <v>112</v>
+      </c>
+      <c r="C25" t="n">
+        <v>151</v>
+      </c>
+      <c r="D25" t="n">
+        <v>313</v>
+      </c>
+      <c r="E25" t="n">
+        <v>59</v>
+      </c>
+      <c r="F25" t="n">
+        <v>264</v>
+      </c>
+      <c r="G25" t="n">
+        <v>628</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9956</v>
+      </c>
+      <c r="I25" t="n">
+        <v>115</v>
+      </c>
+      <c r="J25" t="n">
+        <v>97</v>
+      </c>
+      <c r="K25" t="n">
+        <v>39</v>
+      </c>
+      <c r="L25" t="n">
+        <v>147</v>
+      </c>
+      <c r="M25" t="n">
+        <v>114</v>
+      </c>
+      <c r="N25" t="n">
+        <v>488</v>
+      </c>
+      <c r="O25" t="n">
+        <v>67</v>
+      </c>
+      <c r="P25" t="n">
+        <v>88</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>524</v>
+      </c>
+      <c r="R25" t="n">
+        <v>636</v>
+      </c>
+      <c r="S25" t="n">
+        <v>212</v>
+      </c>
+      <c r="T25" t="n">
+        <v>187</v>
+      </c>
+      <c r="U25" t="n">
+        <v>157</v>
+      </c>
+      <c r="V25" t="n">
+        <v>61</v>
+      </c>
+      <c r="W25" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="n">
+        <v>44006</v>
+      </c>
+      <c r="B26" t="n">
+        <v>125</v>
+      </c>
+      <c r="C26" t="n">
+        <v>151</v>
+      </c>
+      <c r="D26" t="n">
+        <v>316</v>
+      </c>
+      <c r="E26" t="n">
+        <v>59</v>
+      </c>
+      <c r="F26" t="n">
+        <v>266</v>
+      </c>
+      <c r="G26" t="n">
+        <v>633</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10159</v>
+      </c>
+      <c r="I26" t="n">
+        <v>118</v>
+      </c>
+      <c r="J26" t="n">
+        <v>97</v>
+      </c>
+      <c r="K26" t="n">
+        <v>39</v>
+      </c>
+      <c r="L26" t="n">
+        <v>147</v>
+      </c>
+      <c r="M26" t="n">
+        <v>120</v>
+      </c>
+      <c r="N26" t="n">
+        <v>495</v>
+      </c>
+      <c r="O26" t="n">
+        <v>70</v>
+      </c>
+      <c r="P26" t="n">
+        <v>89</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>540</v>
+      </c>
+      <c r="R26" t="n">
+        <v>647</v>
+      </c>
+      <c r="S26" t="n">
+        <v>212</v>
+      </c>
+      <c r="T26" t="n">
+        <v>187</v>
+      </c>
+      <c r="U26" t="n">
+        <v>158</v>
+      </c>
+      <c r="V26" t="n">
+        <v>61</v>
+      </c>
+      <c r="W26" t="n">
+        <v>130</v>
+      </c>
+    </row>
     <row r="57">
       <c r="A57" s="8" t="n"/>
     </row>

--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -395,7 +395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
@@ -2180,6 +2180,75 @@
       </c>
       <c r="G74" t="n">
         <v>14819</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B75" t="n">
+        <v>11641</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1350</v>
+      </c>
+      <c r="D75" t="n">
+        <v>614</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1350</v>
+      </c>
+      <c r="F75" t="n">
+        <v>664</v>
+      </c>
+      <c r="G75" t="n">
+        <v>15619</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B76" t="n">
+        <v>11789</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1371</v>
+      </c>
+      <c r="D76" t="n">
+        <v>621</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1380</v>
+      </c>
+      <c r="F76" t="n">
+        <v>667</v>
+      </c>
+      <c r="G76" t="n">
+        <v>15828</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B77" t="n">
+        <v>12656</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1441</v>
+      </c>
+      <c r="D77" t="n">
+        <v>629</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1506</v>
+      </c>
+      <c r="F77" t="n">
+        <v>698</v>
+      </c>
+      <c r="G77" t="n">
+        <v>16930</v>
       </c>
     </row>
   </sheetData>
@@ -4102,6 +4171,219 @@
         <v>130</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="9" t="n">
+        <v>44007</v>
+      </c>
+      <c r="B27" t="n">
+        <v>129</v>
+      </c>
+      <c r="C27" t="n">
+        <v>153</v>
+      </c>
+      <c r="D27" t="n">
+        <v>320</v>
+      </c>
+      <c r="E27" t="n">
+        <v>59</v>
+      </c>
+      <c r="F27" t="n">
+        <v>268</v>
+      </c>
+      <c r="G27" t="n">
+        <v>721</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10736</v>
+      </c>
+      <c r="I27" t="n">
+        <v>118</v>
+      </c>
+      <c r="J27" t="n">
+        <v>105</v>
+      </c>
+      <c r="K27" t="n">
+        <v>42</v>
+      </c>
+      <c r="L27" t="n">
+        <v>150</v>
+      </c>
+      <c r="M27" t="n">
+        <v>122</v>
+      </c>
+      <c r="N27" t="n">
+        <v>516</v>
+      </c>
+      <c r="O27" t="n">
+        <v>71</v>
+      </c>
+      <c r="P27" t="n">
+        <v>89</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>585</v>
+      </c>
+      <c r="R27" t="n">
+        <v>655</v>
+      </c>
+      <c r="S27" t="n">
+        <v>230</v>
+      </c>
+      <c r="T27" t="n">
+        <v>189</v>
+      </c>
+      <c r="U27" t="n">
+        <v>160</v>
+      </c>
+      <c r="V27" t="n">
+        <v>61</v>
+      </c>
+      <c r="W27" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="n">
+        <v>44008</v>
+      </c>
+      <c r="B28" t="n">
+        <v>131</v>
+      </c>
+      <c r="C28" t="n">
+        <v>153</v>
+      </c>
+      <c r="D28" t="n">
+        <v>321</v>
+      </c>
+      <c r="E28" t="n">
+        <v>65</v>
+      </c>
+      <c r="F28" t="n">
+        <v>268</v>
+      </c>
+      <c r="G28" t="n">
+        <v>730</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10862</v>
+      </c>
+      <c r="I28" t="n">
+        <v>119</v>
+      </c>
+      <c r="J28" t="n">
+        <v>105</v>
+      </c>
+      <c r="K28" t="n">
+        <v>42</v>
+      </c>
+      <c r="L28" t="n">
+        <v>150</v>
+      </c>
+      <c r="M28" t="n">
+        <v>122</v>
+      </c>
+      <c r="N28" t="n">
+        <v>521</v>
+      </c>
+      <c r="O28" t="n">
+        <v>71</v>
+      </c>
+      <c r="P28" t="n">
+        <v>89</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>606</v>
+      </c>
+      <c r="R28" t="n">
+        <v>670</v>
+      </c>
+      <c r="S28" t="n">
+        <v>231</v>
+      </c>
+      <c r="T28" t="n">
+        <v>190</v>
+      </c>
+      <c r="U28" t="n">
+        <v>180</v>
+      </c>
+      <c r="V28" t="n">
+        <v>61</v>
+      </c>
+      <c r="W28" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="n">
+        <v>44009</v>
+      </c>
+      <c r="B29" t="n">
+        <v>143</v>
+      </c>
+      <c r="C29" t="n">
+        <v>153</v>
+      </c>
+      <c r="D29" t="n">
+        <v>330</v>
+      </c>
+      <c r="E29" t="n">
+        <v>68</v>
+      </c>
+      <c r="F29" t="n">
+        <v>271</v>
+      </c>
+      <c r="G29" t="n">
+        <v>823</v>
+      </c>
+      <c r="H29" t="n">
+        <v>11674</v>
+      </c>
+      <c r="I29" t="n">
+        <v>119</v>
+      </c>
+      <c r="J29" t="n">
+        <v>105</v>
+      </c>
+      <c r="K29" t="n">
+        <v>42</v>
+      </c>
+      <c r="L29" t="n">
+        <v>162</v>
+      </c>
+      <c r="M29" t="n">
+        <v>132</v>
+      </c>
+      <c r="N29" t="n">
+        <v>578</v>
+      </c>
+      <c r="O29" t="n">
+        <v>72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>91</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>652</v>
+      </c>
+      <c r="R29" t="n">
+        <v>682</v>
+      </c>
+      <c r="S29" t="n">
+        <v>243</v>
+      </c>
+      <c r="T29" t="n">
+        <v>198</v>
+      </c>
+      <c r="U29" t="n">
+        <v>187</v>
+      </c>
+      <c r="V29" t="n">
+        <v>62</v>
+      </c>
+      <c r="W29" t="n">
+        <v>143</v>
+      </c>
+    </row>
     <row r="57">
       <c r="A57" s="8" t="n"/>
     </row>

--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -22,19 +22,13 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
@@ -69,7 +63,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -81,8 +75,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -395,15 +387,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col width="17" customWidth="1" style="4" min="1" max="1"/>
+    <col width="17.796875" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
     <col width="13.5" customWidth="1" style="4" min="2" max="2"/>
     <col width="11.3984375" customWidth="1" style="4" min="3" max="3"/>
   </cols>
@@ -470,7 +462,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="6" t="n">
         <v>43935</v>
       </c>
       <c r="B3" t="n">
@@ -494,7 +486,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="6" t="n">
         <v>43936</v>
       </c>
       <c r="B4" t="n">
@@ -518,7 +510,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="6" t="n">
         <v>43937</v>
       </c>
       <c r="B5" t="n">
@@ -542,7 +534,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="6" t="n">
         <v>43938</v>
       </c>
       <c r="B6" t="n">
@@ -566,7 +558,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="6" t="n">
         <v>43939</v>
       </c>
       <c r="B7" t="n">
@@ -590,7 +582,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="6" t="n">
         <v>43940</v>
       </c>
       <c r="B8" t="n">
@@ -614,7 +606,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="6" t="n">
         <v>43941</v>
       </c>
       <c r="B9" t="n">
@@ -638,7 +630,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="6" t="n">
         <v>43942</v>
       </c>
       <c r="B10" t="n">
@@ -662,7 +654,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="6" t="n">
         <v>43943</v>
       </c>
       <c r="B11" t="n">
@@ -686,7 +678,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="6" t="n">
         <v>43944</v>
       </c>
       <c r="B12" t="n">
@@ -710,7 +702,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="6" t="n">
         <v>43945</v>
       </c>
       <c r="B13" t="n">
@@ -734,7 +726,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="6" t="n">
         <v>43946</v>
       </c>
       <c r="B14" t="n">
@@ -758,7 +750,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="6" t="n">
         <v>43947</v>
       </c>
       <c r="B15" t="n">
@@ -782,7 +774,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="6" t="n">
         <v>43948</v>
       </c>
       <c r="B16" t="n">
@@ -806,7 +798,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="6" t="n">
         <v>43949</v>
       </c>
       <c r="B17" t="n">
@@ -830,7 +822,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="n">
+      <c r="A18" s="6" t="n">
         <v>43950</v>
       </c>
       <c r="B18" t="n">
@@ -854,7 +846,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="6" t="n">
         <v>43951</v>
       </c>
       <c r="B19" t="n">
@@ -878,7 +870,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="6" t="n">
         <v>43952</v>
       </c>
       <c r="B20" t="n">
@@ -902,7 +894,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="6" t="n">
         <v>43953</v>
       </c>
       <c r="B21" t="n">
@@ -926,7 +918,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="6" t="n">
         <v>43954</v>
       </c>
       <c r="B22" t="n">
@@ -950,7 +942,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="n">
+      <c r="A23" s="6" t="n">
         <v>43955</v>
       </c>
       <c r="B23" t="n">
@@ -974,7 +966,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="n">
+      <c r="A24" s="6" t="n">
         <v>43956</v>
       </c>
       <c r="B24" t="n">
@@ -998,7 +990,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="6" t="n">
         <v>43957</v>
       </c>
       <c r="B25" t="n">
@@ -1022,7 +1014,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="n">
+      <c r="A26" s="6" t="n">
         <v>43958</v>
       </c>
       <c r="B26" t="n">
@@ -1046,7 +1038,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="n">
+      <c r="A27" s="6" t="n">
         <v>43959</v>
       </c>
       <c r="B27" t="n">
@@ -1070,7 +1062,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="8" t="n">
+      <c r="A28" s="6" t="n">
         <v>43960</v>
       </c>
       <c r="B28" t="n">
@@ -1094,7 +1086,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="8" t="n">
+      <c r="A29" s="6" t="n">
         <v>43961</v>
       </c>
       <c r="B29" t="n">
@@ -1118,7 +1110,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="8" t="n">
+      <c r="A30" s="6" t="n">
         <v>43962</v>
       </c>
       <c r="B30" t="n">
@@ -1142,7 +1134,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="n">
+      <c r="A31" s="6" t="n">
         <v>43963</v>
       </c>
       <c r="B31" t="n">
@@ -1166,7 +1158,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="n">
+      <c r="A32" s="6" t="n">
         <v>43964</v>
       </c>
       <c r="B32" t="n">
@@ -1190,7 +1182,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="n">
+      <c r="A33" s="6" t="n">
         <v>43965</v>
       </c>
       <c r="B33" t="n">
@@ -1214,7 +1206,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="n">
+      <c r="A34" s="6" t="n">
         <v>43966</v>
       </c>
       <c r="B34" t="n">
@@ -1238,7 +1230,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="n">
+      <c r="A35" s="6" t="n">
         <v>43967</v>
       </c>
       <c r="B35" t="n">
@@ -1262,7 +1254,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="8" t="n">
+      <c r="A36" s="6" t="n">
         <v>43968</v>
       </c>
       <c r="B36" t="n">
@@ -1286,7 +1278,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="n">
+      <c r="A37" s="6" t="n">
         <v>43969</v>
       </c>
       <c r="B37" t="n">
@@ -1310,7 +1302,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="8" t="n">
+      <c r="A38" s="6" t="n">
         <v>43970</v>
       </c>
       <c r="B38" t="n">
@@ -1334,7 +1326,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="8" t="n">
+      <c r="A39" s="6" t="n">
         <v>43971</v>
       </c>
       <c r="B39" t="n">
@@ -1358,7 +1350,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="8" t="n">
+      <c r="A40" s="6" t="n">
         <v>43972</v>
       </c>
       <c r="B40" t="n">
@@ -1382,7 +1374,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="n">
+      <c r="A41" s="6" t="n">
         <v>43973</v>
       </c>
       <c r="B41" t="n">
@@ -1406,7 +1398,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="8" t="n">
+      <c r="A42" s="6" t="n">
         <v>43974</v>
       </c>
       <c r="B42" t="n">
@@ -1430,7 +1422,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="8" t="n">
+      <c r="A43" s="6" t="n">
         <v>43975</v>
       </c>
       <c r="B43" t="n">
@@ -1454,7 +1446,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="8" t="n">
+      <c r="A44" s="6" t="n">
         <v>43976</v>
       </c>
       <c r="B44" t="n">
@@ -1478,7 +1470,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="n">
+      <c r="A45" s="6" t="n">
         <v>43977</v>
       </c>
       <c r="B45" t="n">
@@ -1502,7 +1494,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="8" t="n">
+      <c r="A46" s="6" t="n">
         <v>43978</v>
       </c>
       <c r="B46" t="n">
@@ -1526,7 +1518,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="n">
+      <c r="A47" s="6" t="n">
         <v>43979</v>
       </c>
       <c r="B47" t="n">
@@ -1550,7 +1542,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="8" t="n">
+      <c r="A48" s="6" t="n">
         <v>43980</v>
       </c>
       <c r="B48" t="n">
@@ -1574,7 +1566,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="8" t="n">
+      <c r="A49" s="6" t="n">
         <v>43981</v>
       </c>
       <c r="B49" t="n">
@@ -1598,7 +1590,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="8" t="n">
+      <c r="A50" s="6" t="n">
         <v>43982</v>
       </c>
       <c r="B50" t="n">
@@ -1622,7 +1614,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="8" t="n">
+      <c r="A51" s="6" t="n">
         <v>43983</v>
       </c>
       <c r="B51" t="n">
@@ -1646,7 +1638,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="n">
+      <c r="A52" s="6" t="n">
         <v>43984</v>
       </c>
       <c r="B52" t="n">
@@ -1670,7 +1662,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="8" t="n">
+      <c r="A53" s="6" t="n">
         <v>43985</v>
       </c>
       <c r="B53" t="n">
@@ -1694,7 +1686,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="8" t="n">
+      <c r="A54" s="6" t="n">
         <v>43986</v>
       </c>
       <c r="B54" t="n">
@@ -1718,7 +1710,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="8" t="n">
+      <c r="A55" s="6" t="n">
         <v>43987</v>
       </c>
       <c r="B55" t="n">
@@ -1742,7 +1734,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="n">
+      <c r="A56" s="6" t="n">
         <v>43988</v>
       </c>
       <c r="B56" t="n">
@@ -1766,7 +1758,7 @@
       </c>
     </row>
     <row r="57" ht="15.6" customHeight="1" s="4">
-      <c r="A57" s="8" t="n">
+      <c r="A57" s="6" t="n">
         <v>43989</v>
       </c>
       <c r="B57" t="n">
@@ -1790,7 +1782,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="8" t="n">
+      <c r="A58" s="6" t="n">
         <v>43990</v>
       </c>
       <c r="B58" t="n">
@@ -1814,7 +1806,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="8" t="n">
+      <c r="A59" s="6" t="n">
         <v>43991</v>
       </c>
       <c r="B59" t="n">
@@ -1838,7 +1830,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="8" t="n">
+      <c r="A60" s="6" t="n">
         <v>43992</v>
       </c>
       <c r="B60" t="n">
@@ -1861,7 +1853,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="8" t="n">
+      <c r="A61" s="6" t="n">
         <v>43993</v>
       </c>
       <c r="B61" t="n">
@@ -1884,7 +1876,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="8" t="n">
+      <c r="A62" s="6" t="n">
         <v>43994</v>
       </c>
       <c r="B62" t="n">
@@ -1907,7 +1899,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="8" t="n">
+      <c r="A63" s="6" t="n">
         <v>43995</v>
       </c>
       <c r="B63" t="n">
@@ -1930,7 +1922,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="n">
+      <c r="A64" s="6" t="n">
         <v>43996</v>
       </c>
       <c r="B64" t="n">
@@ -1953,7 +1945,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="8" t="n">
+      <c r="A65" s="6" t="n">
         <v>43997</v>
       </c>
       <c r="B65" t="n">
@@ -1976,7 +1968,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="9" t="n">
+      <c r="A66" s="6" t="n">
         <v>43998</v>
       </c>
       <c r="B66" t="n">
@@ -1999,7 +1991,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="9" t="n">
+      <c r="A67" s="6" t="n">
         <v>43999</v>
       </c>
       <c r="B67" t="n">
@@ -2022,7 +2014,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="9" t="n">
+      <c r="A68" s="6" t="n">
         <v>44000</v>
       </c>
       <c r="B68" t="n">
@@ -2045,7 +2037,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="9" t="n">
+      <c r="A69" s="6" t="n">
         <v>44001</v>
       </c>
       <c r="B69" t="n">
@@ -2068,7 +2060,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="9" t="n">
+      <c r="A70" s="6" t="n">
         <v>44002</v>
       </c>
       <c r="B70" t="n">
@@ -2091,7 +2083,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="9" t="n">
+      <c r="A71" s="6" t="n">
         <v>44003</v>
       </c>
       <c r="B71" t="n">
@@ -2114,7 +2106,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="9" t="n">
+      <c r="A72" s="6" t="n">
         <v>44004</v>
       </c>
       <c r="B72" t="n">
@@ -2137,7 +2129,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="9" t="n">
+      <c r="A73" s="6" t="n">
         <v>44005</v>
       </c>
       <c r="B73" t="n">
@@ -2160,7 +2152,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="9" t="n">
+      <c r="A74" s="6" t="n">
         <v>44006</v>
       </c>
       <c r="B74" t="n">
@@ -2183,7 +2175,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="9" t="n">
+      <c r="A75" s="6" t="n">
         <v>44007</v>
       </c>
       <c r="B75" t="n">
@@ -2206,7 +2198,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="9" t="n">
+      <c r="A76" s="6" t="n">
         <v>44008</v>
       </c>
       <c r="B76" t="n">
@@ -2229,26 +2221,141 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="9" t="n">
+      <c r="A77" s="6" t="n">
+        <v>44008.5</v>
+      </c>
+      <c r="B77" t="n">
+        <v>12184</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1423</v>
+      </c>
+      <c r="D77" t="n">
+        <v>624</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1473</v>
+      </c>
+      <c r="F77" t="n">
+        <v>693</v>
+      </c>
+      <c r="G77" t="n">
+        <v>16397</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n">
         <v>44009</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B78" t="n">
         <v>12656</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C78" t="n">
         <v>1441</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D78" t="n">
         <v>629</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E78" t="n">
         <v>1506</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F78" t="n">
         <v>698</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G78" t="n">
         <v>16930</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B79" t="n">
+        <v>13038</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1462</v>
+      </c>
+      <c r="D79" t="n">
+        <v>635</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F79" t="n">
+        <v>698</v>
+      </c>
+      <c r="G79" t="n">
+        <v>17409</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="7" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B80" t="n">
+        <v>13508</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1506</v>
+      </c>
+      <c r="D80" t="n">
+        <v>650</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1716</v>
+      </c>
+      <c r="F80" t="n">
+        <v>716</v>
+      </c>
+      <c r="G80" t="n">
+        <v>18096</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="7" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B81" t="n">
+        <v>14184</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1562</v>
+      </c>
+      <c r="D81" t="n">
+        <v>679</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1845</v>
+      </c>
+      <c r="F81" t="n">
+        <v>741</v>
+      </c>
+      <c r="G81" t="n">
+        <v>19011</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="7" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B82" t="n">
+        <v>14994</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1596</v>
+      </c>
+      <c r="D82" t="n">
+        <v>711</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F82" t="n">
+        <v>753</v>
+      </c>
+      <c r="G82" t="n">
+        <v>20072</v>
       </c>
     </row>
   </sheetData>
@@ -2268,15 +2375,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
   <cols>
-    <col width="16.69921875" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="18.69921875" customWidth="1" style="4" min="1" max="1"/>
+    <col width="8.796875" customWidth="1" style="4" min="2" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2397,7 +2505,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" t="n">
         <v>43981</v>
       </c>
       <c r="B2" t="n">
@@ -2468,7 +2576,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" t="n">
         <v>43982</v>
       </c>
       <c r="B3" t="n">
@@ -2539,7 +2647,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" t="n">
         <v>43983</v>
       </c>
       <c r="B4" t="n">
@@ -2610,7 +2718,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" t="n">
         <v>43984</v>
       </c>
       <c r="B5" t="n">
@@ -2681,7 +2789,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" t="n">
         <v>43985</v>
       </c>
       <c r="B6" t="n">
@@ -2752,7 +2860,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" t="n">
         <v>43986</v>
       </c>
       <c r="B7" t="n">
@@ -2823,7 +2931,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" t="n">
         <v>43987</v>
       </c>
       <c r="B8" t="n">
@@ -2894,7 +3002,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" t="n">
         <v>43988</v>
       </c>
       <c r="B9" t="n">
@@ -2965,7 +3073,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" t="n">
         <v>43989</v>
       </c>
       <c r="B10" t="n">
@@ -3036,7 +3144,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" t="n">
         <v>43991</v>
       </c>
       <c r="B11" t="n">
@@ -3107,7 +3215,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" t="n">
         <v>43992</v>
       </c>
       <c r="B12" t="n">
@@ -3178,78 +3286,78 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" t="n">
         <v>43993</v>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B13" t="n">
         <v>63</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" t="n">
         <v>124</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" t="n">
         <v>242</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" t="n">
         <v>42</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" t="n">
         <v>206</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" t="n">
         <v>213</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" t="n">
         <v>5847</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" t="n">
         <v>77</v>
       </c>
-      <c r="J13" s="6" t="n">
+      <c r="J13" t="n">
         <v>62</v>
       </c>
-      <c r="K13" s="6" t="n">
+      <c r="K13" t="n">
         <v>23</v>
       </c>
-      <c r="L13" s="6" t="n">
+      <c r="L13" t="n">
         <v>107</v>
       </c>
-      <c r="M13" s="6" t="n">
+      <c r="M13" t="n">
         <v>57</v>
       </c>
-      <c r="N13" s="6" t="n">
+      <c r="N13" t="n">
         <v>222</v>
       </c>
-      <c r="O13" s="6" t="n">
+      <c r="O13" t="n">
         <v>53</v>
       </c>
-      <c r="P13" s="6" t="n">
+      <c r="P13" t="n">
         <v>68</v>
       </c>
-      <c r="Q13" s="6" t="n">
+      <c r="Q13" t="n">
         <v>191</v>
       </c>
-      <c r="R13" s="6" t="n">
+      <c r="R13" t="n">
         <v>482</v>
       </c>
-      <c r="S13" s="6" t="n">
+      <c r="S13" t="n">
         <v>143</v>
       </c>
-      <c r="T13" s="6" t="n">
+      <c r="T13" t="n">
         <v>121</v>
       </c>
-      <c r="U13" s="6" t="n">
+      <c r="U13" t="n">
         <v>95</v>
       </c>
-      <c r="V13" s="6" t="n">
+      <c r="V13" t="n">
         <v>49</v>
       </c>
-      <c r="W13" s="6" t="n">
+      <c r="W13" t="n">
         <v>74</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
+      <c r="A14" t="n">
         <v>43994</v>
       </c>
       <c r="B14" t="n">
@@ -3320,7 +3428,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n">
+      <c r="A15" t="n">
         <v>43995</v>
       </c>
       <c r="B15" t="n">
@@ -3391,7 +3499,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
+      <c r="A16" t="n">
         <v>43996</v>
       </c>
       <c r="B16" t="n">
@@ -3462,7 +3570,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="n">
+      <c r="A17" t="n">
         <v>43997</v>
       </c>
       <c r="B17" t="n">
@@ -3533,7 +3641,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="n">
+      <c r="A18" t="n">
         <v>43998</v>
       </c>
       <c r="B18" t="n">
@@ -3604,7 +3712,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="n">
+      <c r="A19" t="n">
         <v>43999</v>
       </c>
       <c r="B19" t="n">
@@ -3675,7 +3783,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="n">
+      <c r="A20" t="n">
         <v>44000</v>
       </c>
       <c r="B20" t="n">
@@ -3746,7 +3854,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="9" t="n">
+      <c r="A21" t="n">
         <v>44001</v>
       </c>
       <c r="B21" t="n">
@@ -3817,7 +3925,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="n">
+      <c r="A22" t="n">
         <v>44002</v>
       </c>
       <c r="B22" t="n">
@@ -3888,7 +3996,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="n">
+      <c r="A23" t="n">
         <v>44003</v>
       </c>
       <c r="B23" t="n">
@@ -3959,7 +4067,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="n">
+      <c r="A24" t="n">
         <v>44004</v>
       </c>
       <c r="B24" t="n">
@@ -4030,7 +4138,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="n">
+      <c r="A25" t="n">
         <v>44005</v>
       </c>
       <c r="B25" t="n">
@@ -4101,7 +4209,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="9" t="n">
+      <c r="A26" t="n">
         <v>44006</v>
       </c>
       <c r="B26" t="n">
@@ -4172,7 +4280,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="n">
+      <c r="A27" t="n">
         <v>44007</v>
       </c>
       <c r="B27" t="n">
@@ -4243,7 +4351,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="9" t="n">
+      <c r="A28" t="n">
         <v>44008</v>
       </c>
       <c r="B28" t="n">
@@ -4314,78 +4422,452 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="n">
+      <c r="A29" t="n">
+        <v>44008.5</v>
+      </c>
+      <c r="B29">
+        <f>B28+8</f>
+        <v/>
+      </c>
+      <c r="C29">
+        <f>C28</f>
+        <v/>
+      </c>
+      <c r="D29">
+        <f>D28+1</f>
+        <v/>
+      </c>
+      <c r="E29">
+        <f>E28+1</f>
+        <v/>
+      </c>
+      <c r="F29">
+        <f>F28+0</f>
+        <v/>
+      </c>
+      <c r="G29">
+        <f>G28+70</f>
+        <v/>
+      </c>
+      <c r="H29">
+        <f>H28+363</f>
+        <v/>
+      </c>
+      <c r="I29">
+        <f>I28</f>
+        <v/>
+      </c>
+      <c r="J29">
+        <f>J28</f>
+        <v/>
+      </c>
+      <c r="K29">
+        <f>K28</f>
+        <v/>
+      </c>
+      <c r="L29">
+        <f>L28+9</f>
+        <v/>
+      </c>
+      <c r="M29">
+        <f>M28+10</f>
+        <v/>
+      </c>
+      <c r="N29">
+        <f>N28+45</f>
+        <v/>
+      </c>
+      <c r="O29">
+        <f>O28+0</f>
+        <v/>
+      </c>
+      <c r="P29">
+        <f>P28+2</f>
+        <v/>
+      </c>
+      <c r="Q29">
+        <f>Q28+31</f>
+        <v/>
+      </c>
+      <c r="R29">
+        <f>R28+7</f>
+        <v/>
+      </c>
+      <c r="S29">
+        <f>S28+8</f>
+        <v/>
+      </c>
+      <c r="T29">
+        <f>T28+8</f>
+        <v/>
+      </c>
+      <c r="U29">
+        <f>U28+4</f>
+        <v/>
+      </c>
+      <c r="V29">
+        <f>V28+0</f>
+        <v/>
+      </c>
+      <c r="W29">
+        <f>W28+2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>44009</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B30" t="n">
         <v>143</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>153</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D30" t="n">
         <v>330</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E30" t="n">
         <v>68</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F30" t="n">
         <v>271</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G30" t="n">
         <v>823</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H30" t="n">
         <v>11674</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I30" t="n">
         <v>119</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J30" t="n">
         <v>105</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K30" t="n">
         <v>42</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L30" t="n">
         <v>162</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M30" t="n">
         <v>132</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N30" t="n">
         <v>578</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O30" t="n">
         <v>72</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P30" t="n">
         <v>91</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q30" t="n">
         <v>652</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R30" t="n">
         <v>682</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S30" t="n">
         <v>243</v>
       </c>
-      <c r="T29" t="n">
+      <c r="T30" t="n">
         <v>198</v>
       </c>
-      <c r="U29" t="n">
+      <c r="U30" t="n">
         <v>187</v>
       </c>
-      <c r="V29" t="n">
+      <c r="V30" t="n">
         <v>62</v>
       </c>
-      <c r="W29" t="n">
+      <c r="W30" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="8" t="n"/>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>44010</v>
+      </c>
+      <c r="B31" t="n">
+        <v>143</v>
+      </c>
+      <c r="C31" t="n">
+        <v>153</v>
+      </c>
+      <c r="D31" t="n">
+        <v>331</v>
+      </c>
+      <c r="E31" t="n">
+        <v>68</v>
+      </c>
+      <c r="F31" t="n">
+        <v>273</v>
+      </c>
+      <c r="G31" t="n">
+        <v>858</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12023</v>
+      </c>
+      <c r="I31" t="n">
+        <v>122</v>
+      </c>
+      <c r="J31" t="n">
+        <v>109</v>
+      </c>
+      <c r="K31" t="n">
+        <v>42</v>
+      </c>
+      <c r="L31" t="n">
+        <v>163</v>
+      </c>
+      <c r="M31" t="n">
+        <v>132</v>
+      </c>
+      <c r="N31" t="n">
+        <v>591</v>
+      </c>
+      <c r="O31" t="n">
+        <v>72</v>
+      </c>
+      <c r="P31" t="n">
+        <v>106</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>684</v>
+      </c>
+      <c r="R31" t="n">
+        <v>685</v>
+      </c>
+      <c r="S31" t="n">
+        <v>245</v>
+      </c>
+      <c r="T31" t="n">
+        <v>198</v>
+      </c>
+      <c r="U31" t="n">
+        <v>204</v>
+      </c>
+      <c r="V31" t="n">
+        <v>64</v>
+      </c>
+      <c r="W31" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="n">
+        <v>44011</v>
+      </c>
+      <c r="B32" t="n">
+        <v>149</v>
+      </c>
+      <c r="C32" t="n">
+        <v>155</v>
+      </c>
+      <c r="D32" t="n">
+        <v>336</v>
+      </c>
+      <c r="E32" t="n">
+        <v>69</v>
+      </c>
+      <c r="F32" t="n">
+        <v>277</v>
+      </c>
+      <c r="G32" t="n">
+        <v>970</v>
+      </c>
+      <c r="H32" t="n">
+        <v>12464</v>
+      </c>
+      <c r="I32" t="n">
+        <v>124</v>
+      </c>
+      <c r="J32" t="n">
+        <v>114</v>
+      </c>
+      <c r="K32" t="n">
+        <v>44</v>
+      </c>
+      <c r="L32" t="n">
+        <v>165</v>
+      </c>
+      <c r="M32" t="n">
+        <v>134</v>
+      </c>
+      <c r="N32" t="n">
+        <v>620</v>
+      </c>
+      <c r="O32" t="n">
+        <v>78</v>
+      </c>
+      <c r="P32" t="n">
+        <v>107</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>708</v>
+      </c>
+      <c r="R32" t="n">
+        <v>697</v>
+      </c>
+      <c r="S32" t="n">
+        <v>253</v>
+      </c>
+      <c r="T32" t="n">
+        <v>200</v>
+      </c>
+      <c r="U32" t="n">
+        <v>221</v>
+      </c>
+      <c r="V32" t="n">
+        <v>65</v>
+      </c>
+      <c r="W32" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B33" t="n">
+        <v>156</v>
+      </c>
+      <c r="C33" t="n">
+        <v>160</v>
+      </c>
+      <c r="D33" t="n">
+        <v>343</v>
+      </c>
+      <c r="E33" t="n">
+        <v>73</v>
+      </c>
+      <c r="F33" t="n">
+        <v>281</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1050</v>
+      </c>
+      <c r="H33" t="n">
+        <v>13090</v>
+      </c>
+      <c r="I33" t="n">
+        <v>125</v>
+      </c>
+      <c r="J33" t="n">
+        <v>120</v>
+      </c>
+      <c r="K33" t="n">
+        <v>46</v>
+      </c>
+      <c r="L33" t="n">
+        <v>171</v>
+      </c>
+      <c r="M33" t="n">
+        <v>141</v>
+      </c>
+      <c r="N33" t="n">
+        <v>650</v>
+      </c>
+      <c r="O33" t="n">
+        <v>82</v>
+      </c>
+      <c r="P33" t="n">
+        <v>110</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>751</v>
+      </c>
+      <c r="R33" t="n">
+        <v>720</v>
+      </c>
+      <c r="S33" t="n">
+        <v>258</v>
+      </c>
+      <c r="T33" t="n">
+        <v>202</v>
+      </c>
+      <c r="U33" t="n">
+        <v>256</v>
+      </c>
+      <c r="V33" t="n">
+        <v>67</v>
+      </c>
+      <c r="W33" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B34" t="n">
+        <v>159</v>
+      </c>
+      <c r="C34" t="n">
+        <v>164</v>
+      </c>
+      <c r="D34" t="n">
+        <v>348</v>
+      </c>
+      <c r="E34" t="n">
+        <v>74</v>
+      </c>
+      <c r="F34" t="n">
+        <v>286</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1178</v>
+      </c>
+      <c r="H34" t="n">
+        <v>13814</v>
+      </c>
+      <c r="I34" t="n">
+        <v>128</v>
+      </c>
+      <c r="J34" t="n">
+        <v>138</v>
+      </c>
+      <c r="K34" t="n">
+        <v>47</v>
+      </c>
+      <c r="L34" t="n">
+        <v>180</v>
+      </c>
+      <c r="M34" t="n">
+        <v>141</v>
+      </c>
+      <c r="N34" t="n">
+        <v>674</v>
+      </c>
+      <c r="O34" t="n">
+        <v>82</v>
+      </c>
+      <c r="P34" t="n">
+        <v>113</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>832</v>
+      </c>
+      <c r="R34" t="n">
+        <v>725</v>
+      </c>
+      <c r="S34" t="n">
+        <v>275</v>
+      </c>
+      <c r="T34" t="n">
+        <v>207</v>
+      </c>
+      <c r="U34" t="n">
+        <v>272</v>
+      </c>
+      <c r="V34" t="n">
+        <v>69</v>
+      </c>
+      <c r="W34" t="n">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -387,7 +387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="I73" sqref="I73"/>
@@ -2358,6 +2358,52 @@
         <v>20072</v>
       </c>
     </row>
+    <row r="83">
+      <c r="A83" s="7" t="n">
+        <v>44014</v>
+      </c>
+      <c r="B83" t="n">
+        <v>15859</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1673</v>
+      </c>
+      <c r="D83" t="n">
+        <v>765</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F83" t="n">
+        <v>796</v>
+      </c>
+      <c r="G83" t="n">
+        <v>21293</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="7" t="n">
+        <v>44015</v>
+      </c>
+      <c r="B84" t="n">
+        <v>16731</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1750</v>
+      </c>
+      <c r="D84" t="n">
+        <v>803</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2395</v>
+      </c>
+      <c r="F84" t="n">
+        <v>822</v>
+      </c>
+      <c r="G84" t="n">
+        <v>22501</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G16">
     <sortState ref="A2:G41">
@@ -2375,7 +2421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
@@ -4869,6 +4915,148 @@
         <v>166</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="7" t="n">
+        <v>44014</v>
+      </c>
+      <c r="B35" t="n">
+        <v>182</v>
+      </c>
+      <c r="C35" t="n">
+        <v>170</v>
+      </c>
+      <c r="D35" t="n">
+        <v>358</v>
+      </c>
+      <c r="E35" t="n">
+        <v>77</v>
+      </c>
+      <c r="F35" t="n">
+        <v>298</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1299</v>
+      </c>
+      <c r="H35" t="n">
+        <v>14596</v>
+      </c>
+      <c r="I35" t="n">
+        <v>130</v>
+      </c>
+      <c r="J35" t="n">
+        <v>165</v>
+      </c>
+      <c r="K35" t="n">
+        <v>52</v>
+      </c>
+      <c r="L35" t="n">
+        <v>189</v>
+      </c>
+      <c r="M35" t="n">
+        <v>147</v>
+      </c>
+      <c r="N35" t="n">
+        <v>729</v>
+      </c>
+      <c r="O35" t="n">
+        <v>88</v>
+      </c>
+      <c r="P35" t="n">
+        <v>121</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>905</v>
+      </c>
+      <c r="R35" t="n">
+        <v>742</v>
+      </c>
+      <c r="S35" t="n">
+        <v>279</v>
+      </c>
+      <c r="T35" t="n">
+        <v>209</v>
+      </c>
+      <c r="U35" t="n">
+        <v>312</v>
+      </c>
+      <c r="V35" t="n">
+        <v>72</v>
+      </c>
+      <c r="W35" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="n">
+        <v>44015</v>
+      </c>
+      <c r="B36" t="n">
+        <v>195</v>
+      </c>
+      <c r="C36" t="n">
+        <v>175</v>
+      </c>
+      <c r="D36" t="n">
+        <v>364</v>
+      </c>
+      <c r="E36" t="n">
+        <v>81</v>
+      </c>
+      <c r="F36" t="n">
+        <v>304</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1445</v>
+      </c>
+      <c r="H36" t="n">
+        <v>15393</v>
+      </c>
+      <c r="I36" t="n">
+        <v>132</v>
+      </c>
+      <c r="J36" t="n">
+        <v>181</v>
+      </c>
+      <c r="K36" t="n">
+        <v>59</v>
+      </c>
+      <c r="L36" t="n">
+        <v>199</v>
+      </c>
+      <c r="M36" t="n">
+        <v>149</v>
+      </c>
+      <c r="N36" t="n">
+        <v>786</v>
+      </c>
+      <c r="O36" t="n">
+        <v>93</v>
+      </c>
+      <c r="P36" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>974</v>
+      </c>
+      <c r="R36" t="n">
+        <v>751</v>
+      </c>
+      <c r="S36" t="n">
+        <v>294</v>
+      </c>
+      <c r="T36" t="n">
+        <v>210</v>
+      </c>
+      <c r="U36" t="n">
+        <v>333</v>
+      </c>
+      <c r="V36" t="n">
+        <v>81</v>
+      </c>
+      <c r="W36" t="n">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -387,7 +387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="I73" sqref="I73"/>
@@ -2404,6 +2404,52 @@
         <v>22501</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" s="7" t="n">
+        <v>44016</v>
+      </c>
+      <c r="B85" t="n">
+        <v>17389</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1760</v>
+      </c>
+      <c r="D85" t="n">
+        <v>838</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2435</v>
+      </c>
+      <c r="F85" t="n">
+        <v>826</v>
+      </c>
+      <c r="G85" t="n">
+        <v>23248</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="7" t="n">
+        <v>44017</v>
+      </c>
+      <c r="B86" t="n">
+        <v>17942</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1795</v>
+      </c>
+      <c r="D86" t="n">
+        <v>871</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2529</v>
+      </c>
+      <c r="F86" t="n">
+        <v>835</v>
+      </c>
+      <c r="G86" t="n">
+        <v>23972</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G16">
     <sortState ref="A2:G41">
@@ -2421,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
@@ -5057,6 +5103,148 @@
         <v>178</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="7" t="n">
+        <v>44016</v>
+      </c>
+      <c r="B37" t="n">
+        <v>196</v>
+      </c>
+      <c r="C37" t="n">
+        <v>175</v>
+      </c>
+      <c r="D37" t="n">
+        <v>377</v>
+      </c>
+      <c r="E37" t="n">
+        <v>84</v>
+      </c>
+      <c r="F37" t="n">
+        <v>313</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1469</v>
+      </c>
+      <c r="H37" t="n">
+        <v>16006</v>
+      </c>
+      <c r="I37" t="n">
+        <v>132</v>
+      </c>
+      <c r="J37" t="n">
+        <v>197</v>
+      </c>
+      <c r="K37" t="n">
+        <v>64</v>
+      </c>
+      <c r="L37" t="n">
+        <v>206</v>
+      </c>
+      <c r="M37" t="n">
+        <v>151</v>
+      </c>
+      <c r="N37" t="n">
+        <v>792</v>
+      </c>
+      <c r="O37" t="n">
+        <v>94</v>
+      </c>
+      <c r="P37" t="n">
+        <v>125</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1006</v>
+      </c>
+      <c r="R37" t="n">
+        <v>752</v>
+      </c>
+      <c r="S37" t="n">
+        <v>300</v>
+      </c>
+      <c r="T37" t="n">
+        <v>210</v>
+      </c>
+      <c r="U37" t="n">
+        <v>335</v>
+      </c>
+      <c r="V37" t="n">
+        <v>84</v>
+      </c>
+      <c r="W37" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="n">
+        <v>44017</v>
+      </c>
+      <c r="B38" t="n">
+        <v>200</v>
+      </c>
+      <c r="C38" t="n">
+        <v>178</v>
+      </c>
+      <c r="D38" t="n">
+        <v>390</v>
+      </c>
+      <c r="E38" t="n">
+        <v>84</v>
+      </c>
+      <c r="F38" t="n">
+        <v>325</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1512</v>
+      </c>
+      <c r="H38" t="n">
+        <v>16497</v>
+      </c>
+      <c r="I38" t="n">
+        <v>132</v>
+      </c>
+      <c r="J38" t="n">
+        <v>212</v>
+      </c>
+      <c r="K38" t="n">
+        <v>66</v>
+      </c>
+      <c r="L38" t="n">
+        <v>211</v>
+      </c>
+      <c r="M38" t="n">
+        <v>151</v>
+      </c>
+      <c r="N38" t="n">
+        <v>818</v>
+      </c>
+      <c r="O38" t="n">
+        <v>95</v>
+      </c>
+      <c r="P38" t="n">
+        <v>126</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1055</v>
+      </c>
+      <c r="R38" t="n">
+        <v>761</v>
+      </c>
+      <c r="S38" t="n">
+        <v>301</v>
+      </c>
+      <c r="T38" t="n">
+        <v>211</v>
+      </c>
+      <c r="U38" t="n">
+        <v>379</v>
+      </c>
+      <c r="V38" t="n">
+        <v>84</v>
+      </c>
+      <c r="W38" t="n">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -387,7 +387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="I73" sqref="I73"/>
@@ -2450,6 +2450,52 @@
         <v>23972</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" s="7" t="n">
+        <v>44018</v>
+      </c>
+      <c r="B87" t="n">
+        <v>18541</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1847</v>
+      </c>
+      <c r="D87" t="n">
+        <v>917</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2632</v>
+      </c>
+      <c r="F87" t="n">
+        <v>850</v>
+      </c>
+      <c r="G87" t="n">
+        <v>24787</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="7" t="n">
+        <v>44019</v>
+      </c>
+      <c r="B88" t="n">
+        <v>18969</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1908</v>
+      </c>
+      <c r="D88" t="n">
+        <v>963</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2709</v>
+      </c>
+      <c r="F88" t="n">
+        <v>862</v>
+      </c>
+      <c r="G88" t="n">
+        <v>25411</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G16">
     <sortState ref="A2:G41">
@@ -2467,7 +2513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W38"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I37" sqref="I37"/>
@@ -5245,6 +5291,148 @@
         <v>184</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="7" t="n">
+        <v>44018</v>
+      </c>
+      <c r="B39" t="n">
+        <v>207</v>
+      </c>
+      <c r="C39" t="n">
+        <v>180</v>
+      </c>
+      <c r="D39" t="n">
+        <v>393</v>
+      </c>
+      <c r="E39" t="n">
+        <v>84</v>
+      </c>
+      <c r="F39" t="n">
+        <v>329</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1561</v>
+      </c>
+      <c r="H39" t="n">
+        <v>17048</v>
+      </c>
+      <c r="I39" t="n">
+        <v>134</v>
+      </c>
+      <c r="J39" t="n">
+        <v>235</v>
+      </c>
+      <c r="K39" t="n">
+        <v>67</v>
+      </c>
+      <c r="L39" t="n">
+        <v>216</v>
+      </c>
+      <c r="M39" t="n">
+        <v>155</v>
+      </c>
+      <c r="N39" t="n">
+        <v>858</v>
+      </c>
+      <c r="O39" t="n">
+        <v>97</v>
+      </c>
+      <c r="P39" t="n">
+        <v>129</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1100</v>
+      </c>
+      <c r="R39" t="n">
+        <v>769</v>
+      </c>
+      <c r="S39" t="n">
+        <v>312</v>
+      </c>
+      <c r="T39" t="n">
+        <v>211</v>
+      </c>
+      <c r="U39" t="n">
+        <v>414</v>
+      </c>
+      <c r="V39" t="n">
+        <v>86</v>
+      </c>
+      <c r="W39" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="n">
+        <v>44019</v>
+      </c>
+      <c r="B40" t="n">
+        <v>207</v>
+      </c>
+      <c r="C40" t="n">
+        <v>181</v>
+      </c>
+      <c r="D40" t="n">
+        <v>396</v>
+      </c>
+      <c r="E40" t="n">
+        <v>84</v>
+      </c>
+      <c r="F40" t="n">
+        <v>329</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1596</v>
+      </c>
+      <c r="H40" t="n">
+        <v>17419</v>
+      </c>
+      <c r="I40" t="n">
+        <v>134</v>
+      </c>
+      <c r="J40" t="n">
+        <v>273</v>
+      </c>
+      <c r="K40" t="n">
+        <v>68</v>
+      </c>
+      <c r="L40" t="n">
+        <v>223</v>
+      </c>
+      <c r="M40" t="n">
+        <v>163</v>
+      </c>
+      <c r="N40" t="n">
+        <v>891</v>
+      </c>
+      <c r="O40" t="n">
+        <v>97</v>
+      </c>
+      <c r="P40" t="n">
+        <v>132</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1154</v>
+      </c>
+      <c r="R40" t="n">
+        <v>797</v>
+      </c>
+      <c r="S40" t="n">
+        <v>316</v>
+      </c>
+      <c r="T40" t="n">
+        <v>214</v>
+      </c>
+      <c r="U40" t="n">
+        <v>442</v>
+      </c>
+      <c r="V40" t="n">
+        <v>86</v>
+      </c>
+      <c r="W40" t="n">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -387,10 +387,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2290,7 +2290,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="7" t="n">
+      <c r="A80" s="6" t="n">
         <v>44011</v>
       </c>
       <c r="B80" t="n">
@@ -2313,7 +2313,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="7" t="n">
+      <c r="A81" s="6" t="n">
         <v>44012</v>
       </c>
       <c r="B81" t="n">
@@ -2336,7 +2336,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="7" t="n">
+      <c r="A82" s="6" t="n">
         <v>44013</v>
       </c>
       <c r="B82" t="n">
@@ -2359,7 +2359,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="7" t="n">
+      <c r="A83" s="6" t="n">
         <v>44014</v>
       </c>
       <c r="B83" t="n">
@@ -2382,7 +2382,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="7" t="n">
+      <c r="A84" s="6" t="n">
         <v>44015</v>
       </c>
       <c r="B84" t="n">
@@ -2405,7 +2405,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="7" t="n">
+      <c r="A85" s="6" t="n">
         <v>44016</v>
       </c>
       <c r="B85" t="n">
@@ -2428,7 +2428,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="7" t="n">
+      <c r="A86" s="6" t="n">
         <v>44017</v>
       </c>
       <c r="B86" t="n">
@@ -2451,7 +2451,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="7" t="n">
+      <c r="A87" s="6" t="n">
         <v>44018</v>
       </c>
       <c r="B87" t="n">
@@ -2474,7 +2474,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="7" t="n">
+      <c r="A88" s="6" t="n">
         <v>44019</v>
       </c>
       <c r="B88" t="n">
@@ -2494,6 +2494,145 @@
       </c>
       <c r="G88" t="n">
         <v>25411</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="n">
+        <v>44020</v>
+      </c>
+      <c r="B89" t="n">
+        <v>19818</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2045</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2897</v>
+      </c>
+      <c r="F89" t="n">
+        <v>891</v>
+      </c>
+      <c r="G89" t="n">
+        <v>26658</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="n">
+        <v>44021</v>
+      </c>
+      <c r="B90" t="n">
+        <v>20500</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2102</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1051</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3060</v>
+      </c>
+      <c r="F90" t="n">
+        <v>906</v>
+      </c>
+      <c r="G90">
+        <f>SUM(B90:F90)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B91" t="n">
+        <v>21211</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2168</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1112</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3184</v>
+      </c>
+      <c r="F91" t="n">
+        <v>923</v>
+      </c>
+      <c r="G91" t="n">
+        <v>28598</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="7" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B92" t="n">
+        <v>21732</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2227</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1168</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3301</v>
+      </c>
+      <c r="F92" t="n">
+        <v>927</v>
+      </c>
+      <c r="G92" t="n">
+        <v>29355</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="7" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B93" t="n">
+        <v>21953</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2262</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1184</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3380</v>
+      </c>
+      <c r="F93" t="n">
+        <v>963</v>
+      </c>
+      <c r="G93" t="n">
+        <v>29742</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="7" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B94" t="n">
+        <v>22687</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2361</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1259</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3582</v>
+      </c>
+      <c r="F94" t="n">
+        <v>983</v>
+      </c>
+      <c r="G94" t="n">
+        <v>30872</v>
       </c>
     </row>
   </sheetData>
@@ -2513,16 +2652,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6"/>
   <cols>
     <col width="18.69921875" customWidth="1" style="4" min="1" max="1"/>
-    <col width="8.796875" customWidth="1" style="4" min="2" max="16384"/>
+    <col width="8.796875" customWidth="1" style="4" min="2" max="2"/>
+    <col width="8.796875" customWidth="1" style="4" min="3" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2643,7 +2783,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="6" t="n">
         <v>43981</v>
       </c>
       <c r="B2" t="n">
@@ -2714,7 +2854,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="6" t="n">
         <v>43982</v>
       </c>
       <c r="B3" t="n">
@@ -2785,7 +2925,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="6" t="n">
         <v>43983</v>
       </c>
       <c r="B4" t="n">
@@ -2856,7 +2996,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="6" t="n">
         <v>43984</v>
       </c>
       <c r="B5" t="n">
@@ -2927,7 +3067,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="6" t="n">
         <v>43985</v>
       </c>
       <c r="B6" t="n">
@@ -2998,7 +3138,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="6" t="n">
         <v>43986</v>
       </c>
       <c r="B7" t="n">
@@ -3069,7 +3209,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="6" t="n">
         <v>43987</v>
       </c>
       <c r="B8" t="n">
@@ -3140,7 +3280,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="6" t="n">
         <v>43988</v>
       </c>
       <c r="B9" t="n">
@@ -3211,7 +3351,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="6" t="n">
         <v>43989</v>
       </c>
       <c r="B10" t="n">
@@ -3282,8 +3422,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>43991</v>
+      <c r="A11" s="6" t="n">
+        <v>43990</v>
       </c>
       <c r="B11" t="n">
         <v>57</v>
@@ -3353,8 +3493,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>43992</v>
+      <c r="A12" s="6" t="n">
+        <v>43991</v>
       </c>
       <c r="B12" t="n">
         <v>62</v>
@@ -3424,8 +3564,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>43993</v>
+      <c r="A13" s="6" t="n">
+        <v>43992</v>
       </c>
       <c r="B13" t="n">
         <v>63</v>
@@ -3495,8 +3635,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>43994</v>
+      <c r="A14" s="6" t="n">
+        <v>43993</v>
       </c>
       <c r="B14" t="n">
         <v>64</v>
@@ -3566,8 +3706,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>43995</v>
+      <c r="A15" s="6" t="n">
+        <v>43994</v>
       </c>
       <c r="B15" t="n">
         <v>67</v>
@@ -3637,8 +3777,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>43996</v>
+      <c r="A16" s="6" t="n">
+        <v>43995</v>
       </c>
       <c r="B16" t="n">
         <v>73</v>
@@ -3708,8 +3848,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>43997</v>
+      <c r="A17" s="6" t="n">
+        <v>43996</v>
       </c>
       <c r="B17" t="n">
         <v>74</v>
@@ -3779,8 +3919,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>43998</v>
+      <c r="A18" s="6" t="n">
+        <v>43997</v>
       </c>
       <c r="B18" t="n">
         <v>75</v>
@@ -3850,8 +3990,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>43999</v>
+      <c r="A19" s="6" t="n">
+        <v>43998</v>
       </c>
       <c r="B19" t="n">
         <v>77</v>
@@ -3921,8 +4061,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>44000</v>
+      <c r="A20" s="6" t="n">
+        <v>43999</v>
       </c>
       <c r="B20" t="n">
         <v>79</v>
@@ -3992,8 +4132,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>44001</v>
+      <c r="A21" s="6" t="n">
+        <v>44000</v>
       </c>
       <c r="B21" t="n">
         <v>83</v>
@@ -4063,8 +4203,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>44002</v>
+      <c r="A22" s="6" t="n">
+        <v>44001</v>
       </c>
       <c r="B22" t="n">
         <v>85</v>
@@ -4134,8 +4274,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>44003</v>
+      <c r="A23" s="6" t="n">
+        <v>44002</v>
       </c>
       <c r="B23" t="n">
         <v>86</v>
@@ -4205,8 +4345,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>44004</v>
+      <c r="A24" s="6" t="n">
+        <v>44003</v>
       </c>
       <c r="B24" t="n">
         <v>96</v>
@@ -4276,8 +4416,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>44005</v>
+      <c r="A25" s="6" t="n">
+        <v>44004</v>
       </c>
       <c r="B25" t="n">
         <v>112</v>
@@ -4347,8 +4487,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>44006</v>
+      <c r="A26" s="6" t="n">
+        <v>44005</v>
       </c>
       <c r="B26" t="n">
         <v>125</v>
@@ -4418,8 +4558,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>44007</v>
+      <c r="A27" s="6" t="n">
+        <v>44006</v>
       </c>
       <c r="B27" t="n">
         <v>129</v>
@@ -4489,8 +4629,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>44008</v>
+      <c r="A28" s="6" t="n">
+        <v>44007</v>
       </c>
       <c r="B28" t="n">
         <v>131</v>
@@ -4560,8 +4700,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>44008.5</v>
+      <c r="A29" s="6" t="n">
+        <v>44008</v>
       </c>
       <c r="B29">
         <f>B28+8</f>
@@ -4653,7 +4793,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="6" t="n">
         <v>44009</v>
       </c>
       <c r="B30" t="n">
@@ -4724,7 +4864,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="6" t="n">
         <v>44010</v>
       </c>
       <c r="B31" t="n">
@@ -4795,7 +4935,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="n">
+      <c r="A32" s="6" t="n">
         <v>44011</v>
       </c>
       <c r="B32" t="n">
@@ -4866,7 +5006,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="n">
+      <c r="A33" s="6" t="n">
         <v>44012</v>
       </c>
       <c r="B33" t="n">
@@ -4937,7 +5077,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="n">
+      <c r="A34" s="6" t="n">
         <v>44013</v>
       </c>
       <c r="B34" t="n">
@@ -5008,7 +5148,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="n">
+      <c r="A35" s="6" t="n">
         <v>44014</v>
       </c>
       <c r="B35" t="n">
@@ -5079,7 +5219,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="n">
+      <c r="A36" s="6" t="n">
         <v>44015</v>
       </c>
       <c r="B36" t="n">
@@ -5150,7 +5290,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="n">
+      <c r="A37" s="6" t="n">
         <v>44016</v>
       </c>
       <c r="B37" t="n">
@@ -5221,7 +5361,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="n">
+      <c r="A38" s="6" t="n">
         <v>44017</v>
       </c>
       <c r="B38" t="n">
@@ -5292,7 +5432,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="n">
+      <c r="A39" s="6" t="n">
         <v>44018</v>
       </c>
       <c r="B39" t="n">
@@ -5363,7 +5503,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="n">
+      <c r="A40" s="6" t="n">
         <v>44019</v>
       </c>
       <c r="B40" t="n">
@@ -5431,6 +5571,454 @@
       </c>
       <c r="W40" t="n">
         <v>209</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>44020</v>
+      </c>
+      <c r="B41" t="n">
+        <v>222</v>
+      </c>
+      <c r="C41" t="n">
+        <v>184</v>
+      </c>
+      <c r="D41" t="n">
+        <v>405</v>
+      </c>
+      <c r="E41" t="n">
+        <v>84</v>
+      </c>
+      <c r="F41" t="n">
+        <v>340</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1698</v>
+      </c>
+      <c r="H41" t="n">
+        <v>18197</v>
+      </c>
+      <c r="I41" t="n">
+        <v>135</v>
+      </c>
+      <c r="J41" t="n">
+        <v>294</v>
+      </c>
+      <c r="K41" t="n">
+        <v>70</v>
+      </c>
+      <c r="L41" t="n">
+        <v>230</v>
+      </c>
+      <c r="M41" t="n">
+        <v>166</v>
+      </c>
+      <c r="N41" t="n">
+        <v>962</v>
+      </c>
+      <c r="O41" t="n">
+        <v>100</v>
+      </c>
+      <c r="P41" t="n">
+        <v>140</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1216</v>
+      </c>
+      <c r="R41" t="n">
+        <v>848</v>
+      </c>
+      <c r="S41" t="n">
+        <v>331</v>
+      </c>
+      <c r="T41" t="n">
+        <v>219</v>
+      </c>
+      <c r="U41" t="n">
+        <v>498</v>
+      </c>
+      <c r="V41" t="n">
+        <v>100</v>
+      </c>
+      <c r="W41" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>44021</v>
+      </c>
+      <c r="B42">
+        <f>B41+9</f>
+        <v/>
+      </c>
+      <c r="C42">
+        <f>C41+3</f>
+        <v/>
+      </c>
+      <c r="D42">
+        <f>D41+10</f>
+        <v/>
+      </c>
+      <c r="E42">
+        <f>E41+5</f>
+        <v/>
+      </c>
+      <c r="F42">
+        <f>F41+1</f>
+        <v/>
+      </c>
+      <c r="G42">
+        <f>G41+109</f>
+        <v/>
+      </c>
+      <c r="H42">
+        <f>H41+637</f>
+        <v/>
+      </c>
+      <c r="I42">
+        <f>I41+1</f>
+        <v/>
+      </c>
+      <c r="J42">
+        <f>J41+21</f>
+        <v/>
+      </c>
+      <c r="K42">
+        <f>K41+1</f>
+        <v/>
+      </c>
+      <c r="L42">
+        <f>L41+6</f>
+        <v/>
+      </c>
+      <c r="M42">
+        <f>M41+2</f>
+        <v/>
+      </c>
+      <c r="N42">
+        <f>N41+41</f>
+        <v/>
+      </c>
+      <c r="O42">
+        <f>O41</f>
+        <v/>
+      </c>
+      <c r="P42">
+        <f>P41+12</f>
+        <v/>
+      </c>
+      <c r="Q42">
+        <f>Q41+35</f>
+        <v/>
+      </c>
+      <c r="R42">
+        <f>R41+7</f>
+        <v/>
+      </c>
+      <c r="S42">
+        <f>S41+17</f>
+        <v/>
+      </c>
+      <c r="T42">
+        <f>T41+1</f>
+        <v/>
+      </c>
+      <c r="U42">
+        <f>U41+19</f>
+        <v/>
+      </c>
+      <c r="V42">
+        <f>V41+8</f>
+        <v/>
+      </c>
+      <c r="W42">
+        <f>W41+16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>44022</v>
+      </c>
+      <c r="B43" t="n">
+        <v>234</v>
+      </c>
+      <c r="C43" t="n">
+        <v>189</v>
+      </c>
+      <c r="D43" t="n">
+        <v>420</v>
+      </c>
+      <c r="E43" t="n">
+        <v>91</v>
+      </c>
+      <c r="F43" t="n">
+        <v>350</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1895</v>
+      </c>
+      <c r="H43" t="n">
+        <v>19503</v>
+      </c>
+      <c r="I43" t="n">
+        <v>137</v>
+      </c>
+      <c r="J43" t="n">
+        <v>341</v>
+      </c>
+      <c r="K43" t="n">
+        <v>72</v>
+      </c>
+      <c r="L43" t="n">
+        <v>244</v>
+      </c>
+      <c r="M43" t="n">
+        <v>175</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1054</v>
+      </c>
+      <c r="O43" t="n">
+        <v>105</v>
+      </c>
+      <c r="P43" t="n">
+        <v>155</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1288</v>
+      </c>
+      <c r="R43" t="n">
+        <v>862</v>
+      </c>
+      <c r="S43" t="n">
+        <v>366</v>
+      </c>
+      <c r="T43" t="n">
+        <v>220</v>
+      </c>
+      <c r="U43" t="n">
+        <v>524</v>
+      </c>
+      <c r="V43" t="n">
+        <v>115</v>
+      </c>
+      <c r="W43" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="7" t="n">
+        <v>44023</v>
+      </c>
+      <c r="B44" t="n">
+        <v>234</v>
+      </c>
+      <c r="C44" t="n">
+        <v>190</v>
+      </c>
+      <c r="D44" t="n">
+        <v>439</v>
+      </c>
+      <c r="E44" t="n">
+        <v>93</v>
+      </c>
+      <c r="F44" t="n">
+        <v>360</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1960</v>
+      </c>
+      <c r="H44" t="n">
+        <v>19951</v>
+      </c>
+      <c r="I44" t="n">
+        <v>138</v>
+      </c>
+      <c r="J44" t="n">
+        <v>369</v>
+      </c>
+      <c r="K44" t="n">
+        <v>76</v>
+      </c>
+      <c r="L44" t="n">
+        <v>258</v>
+      </c>
+      <c r="M44" t="n">
+        <v>178</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1079</v>
+      </c>
+      <c r="O44" t="n">
+        <v>105</v>
+      </c>
+      <c r="P44" t="n">
+        <v>168</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1342</v>
+      </c>
+      <c r="R44" t="n">
+        <v>893</v>
+      </c>
+      <c r="S44" t="n">
+        <v>379</v>
+      </c>
+      <c r="T44" t="n">
+        <v>220</v>
+      </c>
+      <c r="U44" t="n">
+        <v>536</v>
+      </c>
+      <c r="V44" t="n">
+        <v>117</v>
+      </c>
+      <c r="W44" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="n">
+        <v>44024</v>
+      </c>
+      <c r="B45" t="n">
+        <v>244</v>
+      </c>
+      <c r="C45" t="n">
+        <v>191</v>
+      </c>
+      <c r="D45" t="n">
+        <v>443</v>
+      </c>
+      <c r="E45" t="n">
+        <v>93</v>
+      </c>
+      <c r="F45" t="n">
+        <v>360</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1974</v>
+      </c>
+      <c r="H45" t="n">
+        <v>20156</v>
+      </c>
+      <c r="I45" t="n">
+        <v>140</v>
+      </c>
+      <c r="J45" t="n">
+        <v>384</v>
+      </c>
+      <c r="K45" t="n">
+        <v>77</v>
+      </c>
+      <c r="L45" t="n">
+        <v>261</v>
+      </c>
+      <c r="M45" t="n">
+        <v>185</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1103</v>
+      </c>
+      <c r="O45" t="n">
+        <v>123</v>
+      </c>
+      <c r="P45" t="n">
+        <v>176</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1354</v>
+      </c>
+      <c r="R45" t="n">
+        <v>899</v>
+      </c>
+      <c r="S45" t="n">
+        <v>381</v>
+      </c>
+      <c r="T45" t="n">
+        <v>220</v>
+      </c>
+      <c r="U45" t="n">
+        <v>588</v>
+      </c>
+      <c r="V45" t="n">
+        <v>120</v>
+      </c>
+      <c r="W45" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="n">
+        <v>44025</v>
+      </c>
+      <c r="B46" t="n">
+        <v>252</v>
+      </c>
+      <c r="C46" t="n">
+        <v>194</v>
+      </c>
+      <c r="D46" t="n">
+        <v>454</v>
+      </c>
+      <c r="E46" t="n">
+        <v>96</v>
+      </c>
+      <c r="F46" t="n">
+        <v>402</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2101</v>
+      </c>
+      <c r="H46" t="n">
+        <v>20853</v>
+      </c>
+      <c r="I46" t="n">
+        <v>146</v>
+      </c>
+      <c r="J46" t="n">
+        <v>392</v>
+      </c>
+      <c r="K46" t="n">
+        <v>77</v>
+      </c>
+      <c r="L46" t="n">
+        <v>268</v>
+      </c>
+      <c r="M46" t="n">
+        <v>189</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1164</v>
+      </c>
+      <c r="O46" t="n">
+        <v>128</v>
+      </c>
+      <c r="P46" t="n">
+        <v>187</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1380</v>
+      </c>
+      <c r="R46" t="n">
+        <v>924</v>
+      </c>
+      <c r="S46" t="n">
+        <v>402</v>
+      </c>
+      <c r="T46" t="n">
+        <v>220</v>
+      </c>
+      <c r="U46" t="n">
+        <v>624</v>
+      </c>
+      <c r="V46" t="n">
+        <v>127</v>
+      </c>
+      <c r="W46" t="n">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -387,7 +387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A90" sqref="A90"/>
@@ -2635,6 +2635,29 @@
         <v>30872</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="7" t="n">
+        <v>44026</v>
+      </c>
+      <c r="B95" t="n">
+        <v>23551</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2442</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1324</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3753</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1004</v>
+      </c>
+      <c r="G95" t="n">
+        <v>32074</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G16">
     <sortState ref="A2:G41">
@@ -2652,7 +2675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -6021,6 +6044,77 @@
         <v>292</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="7" t="n">
+        <v>44026</v>
+      </c>
+      <c r="B47" t="n">
+        <v>262</v>
+      </c>
+      <c r="C47" t="n">
+        <v>196</v>
+      </c>
+      <c r="D47" t="n">
+        <v>477</v>
+      </c>
+      <c r="E47" t="n">
+        <v>106</v>
+      </c>
+      <c r="F47" t="n">
+        <v>404</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2172</v>
+      </c>
+      <c r="H47" t="n">
+        <v>21611</v>
+      </c>
+      <c r="I47" t="n">
+        <v>151</v>
+      </c>
+      <c r="J47" t="n">
+        <v>419</v>
+      </c>
+      <c r="K47" t="n">
+        <v>79</v>
+      </c>
+      <c r="L47" t="n">
+        <v>284</v>
+      </c>
+      <c r="M47" t="n">
+        <v>193</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1232</v>
+      </c>
+      <c r="O47" t="n">
+        <v>132</v>
+      </c>
+      <c r="P47" t="n">
+        <v>228</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1463</v>
+      </c>
+      <c r="R47" t="n">
+        <v>928</v>
+      </c>
+      <c r="S47" t="n">
+        <v>411</v>
+      </c>
+      <c r="T47" t="n">
+        <v>221</v>
+      </c>
+      <c r="U47" t="n">
+        <v>658</v>
+      </c>
+      <c r="V47" t="n">
+        <v>131</v>
+      </c>
+      <c r="W47" t="n">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Myinfocovid19.xlsx
+++ b/Myinfocovid19.xlsx
@@ -387,7 +387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A90" sqref="A90"/>
@@ -2658,6 +2658,52 @@
         <v>32074</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="7" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B96" t="n">
+        <v>24138</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2541</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1384</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3836</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1040</v>
+      </c>
+      <c r="G96" t="n">
+        <v>32939</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="7" t="n">
+        <v>44028</v>
+      </c>
+      <c r="B97" t="n">
+        <v>24656</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2692</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1436</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3948</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1077</v>
+      </c>
+      <c r="G97" t="n">
+        <v>33809</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G16">
     <sortState ref="A2:G41">
@@ -2675,7 +2721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W47"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -6115,6 +6161,151 @@
         <v>316</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="7" t="n">
+        <v>44027</v>
+      </c>
+      <c r="B48" t="n">
+        <v>268</v>
+      </c>
+      <c r="C48" t="n">
+        <v>196</v>
+      </c>
+      <c r="D48" t="n">
+        <v>485</v>
+      </c>
+      <c r="E48" t="n">
+        <v>112</v>
+      </c>
+      <c r="F48" t="n">
+        <v>410</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2214</v>
+      </c>
+      <c r="H48" t="n">
+        <v>22127</v>
+      </c>
+      <c r="I48" t="n">
+        <v>152</v>
+      </c>
+      <c r="J48" t="n">
+        <v>441</v>
+      </c>
+      <c r="K48" t="n">
+        <v>84</v>
+      </c>
+      <c r="L48" t="n">
+        <v>286</v>
+      </c>
+      <c r="M48" t="n">
+        <v>213</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1298</v>
+      </c>
+      <c r="O48" t="n">
+        <v>140</v>
+      </c>
+      <c r="P48" t="n">
+        <v>229</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1526</v>
+      </c>
+      <c r="R48" t="n">
+        <v>954</v>
+      </c>
+      <c r="S48" t="n">
+        <v>420</v>
+      </c>
+      <c r="T48" t="n">
+        <v>223</v>
+      </c>
+      <c r="U48" t="n">
+        <v>687</v>
+      </c>
+      <c r="V48" t="n">
+        <v>137</v>
+      </c>
+      <c r="W48" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="n">
+        <v>44028</v>
+      </c>
+      <c r="B49" t="n">
+        <v>276</v>
+      </c>
+      <c r="C49" t="n">
+        <v>213</v>
+      </c>
+      <c r="D49" t="n">
+        <v>499</v>
+      </c>
+      <c r="E49" t="n">
+        <v>120</v>
+      </c>
+      <c r="F49" t="n">
+        <v>412</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2256</v>
+      </c>
+      <c r="H49" t="n">
+        <v>22579</v>
+      </c>
+      <c r="I49" t="n">
+        <v>158</v>
+      </c>
+      <c r="J49" t="n">
+        <v>461</v>
+      </c>
+      <c r="K49" t="n">
+        <v>85</v>
+      </c>
+      <c r="L49" t="n">
+        <v>291</v>
+      </c>
+      <c r="M49" t="n">
+        <v>218</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1409</v>
+      </c>
+      <c r="O49" t="n">
+        <v>143</v>
+      </c>
+      <c r="P49" t="n">
+        <v>267</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1578</v>
+      </c>
+      <c r="R49" t="n">
+        <v>978</v>
+      </c>
+      <c r="S49" t="n">
+        <v>425</v>
+      </c>
+      <c r="T49" t="n">
+        <v>227</v>
+      </c>
+      <c r="U49" t="n">
+        <v>709</v>
+      </c>
+      <c r="V49" t="n">
+        <v>147</v>
+      </c>
+      <c r="W49" t="n">
+        <v>358</v>
+      </c>
+      <c r="X49" t="n">
+        <v>33809</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
